--- a/Physiopathologie/Excel/renale.xlsx
+++ b/Physiopathologie/Excel/renale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C29A1B02-21B4-4961-B73F-47C6F1934B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C00E4-8E5F-440E-9375-06FFBF811E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="15">
   <si>
     <t>Numero</t>
   </si>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Concernant l'hydratation du LEC: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la cause, les états d’hyperhydratation du LEC peuvent s'accompagner d'hypertension artérielle ou d'hypotension artérielle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une déshydratation du LEC, l'osmolalité plasmatique et la natrémie sont normales sauf si il existe un  trouble associé de la balance de l'eau.  </t>
+  </si>
+  <si>
+    <t>Certains états d'hyperhydratation du LEC peuvent s'accompagner de diminution de volume circulant effectif et de signes d'hypovolémie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q22. Concernant l'homéostasie acide-base: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon l'équation de Kassirer-Bleich, lorsque PCO2 = 27 mmHg et [HCO3-2] = 9 mEg/L, [H+] = 72 nM   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un individu normal et ayant un régime occidental, une sécrétion tubulaire de 70 mEg/j de H° est nécessaire pour assurer la réabsorption du HCO2 filtré quotidiennement.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'excrétion urinaire nette et quotidienne de H° = acidité titrable + ammonium — excrétion résiduelle de HCO2 (l'acidité titrable, l'ammonium et le HCO2 étant mesurés sur les urines de 24h)    </t>
   </si>
 </sst>
 </file>
@@ -431,7 +455,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -486,13 +510,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -506,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -526,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -546,13 +570,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -566,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>

--- a/Physiopathologie/Excel/renale.xlsx
+++ b/Physiopathologie/Excel/renale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4EB88-0F6A-459C-98E2-9B0592ED41A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F237B75-1BEA-4F61-AA40-D7F521357EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -1356,16 +1356,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1387,7 +1379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1395,30 +1387,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1756,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,8 +1881,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1927,8 +1901,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1947,8 +1921,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1967,8 +1941,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1987,8 +1961,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2007,8 +1981,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>6</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -2027,8 +2001,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -2047,8 +2021,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>8</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2067,8 +2041,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>9</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -2087,8 +2061,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>10</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -2107,8 +2081,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>11</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2127,8 +2101,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>12</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2147,8 +2121,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2167,8 +2141,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>14</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2187,8 +2161,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>15</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2207,8 +2181,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>16</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -2227,8 +2201,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>17</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2247,8 +2221,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>18</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -2267,8 +2241,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>19</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -2287,8 +2261,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>20</v>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -2307,8 +2281,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>21</v>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -2327,8 +2301,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>22</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -2347,8 +2321,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>23</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -2367,8 +2341,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>24</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -2387,8 +2361,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>25</v>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -2407,8 +2381,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>26</v>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -2427,8 +2401,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>27</v>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -2447,8 +2421,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>28</v>
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -2467,8 +2441,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>29</v>
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -2487,8 +2461,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>30</v>
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -2507,8 +2481,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>31</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -2527,8 +2501,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>32</v>
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -2547,8 +2521,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>33</v>
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -2567,8 +2541,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>35</v>
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -2587,8 +2561,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>36</v>
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -2607,8 +2581,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>37</v>
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -2627,8 +2601,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>38</v>
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -2647,8 +2621,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>39</v>
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -2667,8 +2641,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>40</v>
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -2687,8 +2661,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>41</v>
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -2707,8 +2681,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>42</v>
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -2727,8 +2701,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>43</v>
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -2747,8 +2721,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>44</v>
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -2767,8 +2741,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>45</v>
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -2787,8 +2761,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>46</v>
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -2807,8 +2781,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>47</v>
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -2827,8 +2801,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>48</v>
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -2847,8 +2821,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>49</v>
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -2867,8 +2841,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>50</v>
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -2887,8 +2861,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>51</v>
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -2907,8 +2881,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>52</v>
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -2927,8 +2901,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>53</v>
+      <c r="A59">
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -2947,8 +2921,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>54</v>
+      <c r="A60">
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -2967,8 +2941,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>55</v>
+      <c r="A61">
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -2987,8 +2961,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>56</v>
+      <c r="A62">
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -3007,8 +2981,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>57</v>
+      <c r="A63">
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -3027,13 +3001,13 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>58</v>
+      <c r="A64">
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D64" t="b">
@@ -3047,8 +3021,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>59</v>
+      <c r="A65">
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -3067,8 +3041,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>60</v>
+      <c r="A66">
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -3087,8 +3061,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>61</v>
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -3107,8 +3081,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>62</v>
+      <c r="A68">
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -3127,8 +3101,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>63</v>
+      <c r="A69">
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -3147,8 +3121,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>64</v>
+      <c r="A70">
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -3167,8 +3141,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>65</v>
+      <c r="A71">
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -3187,8 +3161,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>66</v>
+      <c r="A72">
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -3207,8 +3181,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>67</v>
+      <c r="A73">
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -3227,8 +3201,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>68</v>
+      <c r="A74">
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -3247,8 +3221,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>69</v>
+      <c r="A75">
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -3267,8 +3241,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>70</v>
+      <c r="A76">
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -3287,8 +3261,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>71</v>
+      <c r="A77">
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -3307,8 +3281,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>72</v>
+      <c r="A78">
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -3327,8 +3301,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>73</v>
+      <c r="A79">
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -3347,8 +3321,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>312</v>
+      <c r="A80">
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>362</v>
@@ -3367,8 +3341,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>74</v>
+      <c r="A81">
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -3387,8 +3361,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>75</v>
+      <c r="A82">
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -3407,8 +3381,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>76</v>
+      <c r="A83">
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -3427,8 +3401,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>78</v>
+      <c r="A84">
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -3447,8 +3421,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>79</v>
+      <c r="A85">
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -3467,8 +3441,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>80</v>
+      <c r="A86">
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -3487,8 +3461,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>81</v>
+      <c r="A87">
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -3507,8 +3481,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>82</v>
+      <c r="A88">
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>81</v>
@@ -3527,8 +3501,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>83</v>
+      <c r="A89">
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>81</v>
@@ -3547,8 +3521,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>84</v>
+      <c r="A90">
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>81</v>
@@ -3567,8 +3541,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>85</v>
+      <c r="A91">
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>85</v>
@@ -3587,8 +3561,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>86</v>
+      <c r="A92">
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>85</v>
@@ -3607,8 +3581,8 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>87</v>
+      <c r="A93">
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>85</v>
@@ -3627,8 +3601,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>88</v>
+      <c r="A94">
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>89</v>
@@ -3647,8 +3621,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>89</v>
+      <c r="A95">
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>89</v>
@@ -3667,8 +3641,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>90</v>
+      <c r="A96">
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>89</v>
@@ -3687,8 +3661,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>91</v>
+      <c r="A97">
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>91</v>
@@ -3707,8 +3681,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>92</v>
+      <c r="A98">
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>91</v>
@@ -3727,8 +3701,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>93</v>
+      <c r="A99">
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>91</v>
@@ -3747,8 +3721,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>94</v>
+      <c r="A100">
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>93</v>
@@ -3767,8 +3741,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>95</v>
+      <c r="A101">
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>93</v>
@@ -3787,8 +3761,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>96</v>
+      <c r="A102">
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>93</v>
@@ -3807,8 +3781,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>97</v>
+      <c r="A103">
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>95</v>
@@ -3827,8 +3801,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>98</v>
+      <c r="A104">
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>95</v>
@@ -3847,8 +3821,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>99</v>
+      <c r="A105">
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>95</v>
@@ -3867,8 +3841,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>100</v>
+      <c r="A106">
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>97</v>
@@ -3887,8 +3861,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>101</v>
+      <c r="A107">
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>97</v>
@@ -3907,8 +3881,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>102</v>
+      <c r="A108">
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>97</v>
@@ -3927,8 +3901,8 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>103</v>
+      <c r="A109">
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>99</v>
@@ -3947,8 +3921,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>104</v>
+      <c r="A110">
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>99</v>
@@ -3967,8 +3941,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>105</v>
+      <c r="A111">
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>99</v>
@@ -3987,8 +3961,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>106</v>
+      <c r="A112">
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>102</v>
@@ -4007,8 +3981,8 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>107</v>
+      <c r="A113">
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>102</v>
@@ -4027,8 +4001,8 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>108</v>
+      <c r="A114">
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>102</v>
@@ -4047,8 +4021,8 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>109</v>
+      <c r="A115">
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>105</v>
@@ -4067,8 +4041,8 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>110</v>
+      <c r="A116">
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>105</v>
@@ -4087,8 +4061,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>111</v>
+      <c r="A117">
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>105</v>
@@ -4107,8 +4081,8 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>112</v>
+      <c r="A118">
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>107</v>
@@ -4127,8 +4101,8 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>113</v>
+      <c r="A119">
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>107</v>
@@ -4147,8 +4121,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>114</v>
+      <c r="A120">
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>107</v>
@@ -4167,8 +4141,8 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>115</v>
+      <c r="A121">
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -4187,8 +4161,8 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>116</v>
+      <c r="A122">
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -4207,8 +4181,8 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>117</v>
+      <c r="A123">
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -4227,8 +4201,8 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>118</v>
+      <c r="A124">
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>113</v>
@@ -4247,8 +4221,8 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>119</v>
+      <c r="A125">
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>113</v>
@@ -4267,8 +4241,8 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>120</v>
+      <c r="A126">
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>113</v>
@@ -4287,8 +4261,8 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>121</v>
+      <c r="A127">
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>117</v>
@@ -4307,8 +4281,8 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>122</v>
+      <c r="A128">
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>117</v>
@@ -4327,8 +4301,8 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>123</v>
+      <c r="A129">
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>117</v>
@@ -4347,8 +4321,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>124</v>
+      <c r="A130">
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>121</v>
@@ -4367,8 +4341,8 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>125</v>
+      <c r="A131">
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>121</v>
@@ -4387,8 +4361,8 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>126</v>
+      <c r="A132">
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>121</v>
@@ -4407,8 +4381,8 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>127</v>
+      <c r="A133">
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>125</v>
@@ -4427,8 +4401,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>128</v>
+      <c r="A134">
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>125</v>
@@ -4447,8 +4421,8 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>129</v>
+      <c r="A135">
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>125</v>
@@ -4467,8 +4441,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>130</v>
+      <c r="A136">
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>129</v>
@@ -4487,8 +4461,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>131</v>
+      <c r="A137">
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>129</v>
@@ -4507,8 +4481,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>132</v>
+      <c r="A138">
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>129</v>
@@ -4527,8 +4501,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>133</v>
+      <c r="A139">
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -4547,8 +4521,8 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>134</v>
+      <c r="A140">
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -4567,8 +4541,8 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>135</v>
+      <c r="A141">
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -4587,8 +4561,8 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>136</v>
+      <c r="A142">
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -4607,8 +4581,8 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>137</v>
+      <c r="A143">
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -4627,8 +4601,8 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>138</v>
+      <c r="A144">
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -4647,8 +4621,8 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>139</v>
+      <c r="A145">
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -4667,8 +4641,8 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>140</v>
+      <c r="A146">
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -4687,8 +4661,8 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>141</v>
+      <c r="A147">
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -4707,8 +4681,8 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>142</v>
+      <c r="A148">
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -4727,8 +4701,8 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>143</v>
+      <c r="A149">
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -4747,8 +4721,8 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>144</v>
+      <c r="A150">
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -4767,8 +4741,8 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>145</v>
+      <c r="A151">
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -4787,8 +4761,8 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>146</v>
+      <c r="A152">
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -4807,8 +4781,8 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>147</v>
+      <c r="A153">
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -4827,8 +4801,8 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>148</v>
+      <c r="A154">
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -4847,8 +4821,8 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>149</v>
+      <c r="A155">
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -4867,8 +4841,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>150</v>
+      <c r="A156">
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -4887,8 +4861,8 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>151</v>
+      <c r="A157">
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -4907,8 +4881,8 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>152</v>
+      <c r="A158">
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -4927,8 +4901,8 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>153</v>
+      <c r="A159">
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -4947,8 +4921,8 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>154</v>
+      <c r="A160">
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>154</v>
@@ -4967,8 +4941,8 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>155</v>
+      <c r="A161">
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>154</v>
@@ -4987,8 +4961,8 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>156</v>
+      <c r="A162">
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>154</v>
@@ -5007,8 +4981,8 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>157</v>
+      <c r="A163">
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>158</v>
@@ -5027,8 +5001,8 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>158</v>
+      <c r="A164">
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>158</v>
@@ -5047,8 +5021,8 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>159</v>
+      <c r="A165">
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>158</v>
@@ -5067,8 +5041,8 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>160</v>
+      <c r="A166">
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>162</v>
@@ -5087,8 +5061,8 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>161</v>
+      <c r="A167">
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>162</v>
@@ -5107,8 +5081,8 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>162</v>
+      <c r="A168">
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>162</v>
@@ -5127,8 +5101,8 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>163</v>
+      <c r="A169">
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>166</v>
@@ -5147,8 +5121,8 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>164</v>
+      <c r="A170">
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>166</v>
@@ -5167,8 +5141,8 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>165</v>
+      <c r="A171">
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>166</v>
@@ -5187,8 +5161,8 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>166</v>
+      <c r="A172">
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>170</v>
@@ -5207,8 +5181,8 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>167</v>
+      <c r="A173">
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>170</v>
@@ -5227,8 +5201,8 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>168</v>
+      <c r="A174">
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>170</v>
@@ -5247,8 +5221,8 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>169</v>
+      <c r="A175">
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>174</v>
@@ -5267,8 +5241,8 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>170</v>
+      <c r="A176">
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>174</v>
@@ -5287,8 +5261,8 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>171</v>
+      <c r="A177">
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>174</v>
@@ -5307,8 +5281,8 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>172</v>
+      <c r="A178">
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
@@ -5327,8 +5301,8 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>173</v>
+      <c r="A179">
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>178</v>
@@ -5347,8 +5321,8 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>174</v>
+      <c r="A180">
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>178</v>
@@ -5367,8 +5341,8 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>175</v>
+      <c r="A181">
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -5387,8 +5361,8 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>176</v>
+      <c r="A182">
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>182</v>
@@ -5407,8 +5381,8 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>177</v>
+      <c r="A183">
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
@@ -5427,8 +5401,8 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>178</v>
+      <c r="A184">
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>186</v>
@@ -5447,8 +5421,8 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>179</v>
+      <c r="A185">
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -5467,8 +5441,8 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>180</v>
+      <c r="A186">
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>186</v>
@@ -5487,8 +5461,8 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>181</v>
+      <c r="A187">
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>190</v>
@@ -5507,8 +5481,8 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>182</v>
+      <c r="A188">
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>190</v>
@@ -5527,8 +5501,8 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>183</v>
+      <c r="A189">
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -5547,8 +5521,8 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>184</v>
+      <c r="A190">
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>194</v>
@@ -5567,8 +5541,8 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>185</v>
+      <c r="A191">
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>194</v>
@@ -5587,8 +5561,8 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>186</v>
+      <c r="A192">
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>194</v>
@@ -5607,8 +5581,8 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>187</v>
+      <c r="A193">
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>198</v>
@@ -5627,8 +5601,8 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>188</v>
+      <c r="A194">
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>198</v>
@@ -5647,8 +5621,8 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>189</v>
+      <c r="A195">
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>198</v>
@@ -5667,8 +5641,8 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>190</v>
+      <c r="A196">
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>202</v>
@@ -5687,8 +5661,8 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>191</v>
+      <c r="A197">
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>202</v>
@@ -5707,8 +5681,8 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>192</v>
+      <c r="A198">
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>202</v>
@@ -5727,8 +5701,8 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>193</v>
+      <c r="A199">
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>206</v>
@@ -5747,8 +5721,8 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>194</v>
+      <c r="A200">
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>206</v>
@@ -5767,8 +5741,8 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>195</v>
+      <c r="A201">
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>206</v>
@@ -5787,8 +5761,8 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>196</v>
+      <c r="A202">
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>210</v>
@@ -5807,8 +5781,8 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>197</v>
+      <c r="A203">
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>210</v>
@@ -5827,8 +5801,8 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>198</v>
+      <c r="A204">
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>210</v>
@@ -5847,8 +5821,8 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>199</v>
+      <c r="A205">
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>214</v>
@@ -5867,8 +5841,8 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>200</v>
+      <c r="A206">
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>214</v>
@@ -5887,8 +5861,8 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>201</v>
+      <c r="A207">
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>214</v>
@@ -5907,8 +5881,8 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>202</v>
+      <c r="A208">
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>218</v>
@@ -5927,8 +5901,8 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>203</v>
+      <c r="A209">
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>218</v>
@@ -5947,8 +5921,8 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>204</v>
+      <c r="A210">
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>218</v>
@@ -5967,8 +5941,8 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>205</v>
+      <c r="A211">
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>222</v>
@@ -5987,8 +5961,8 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>206</v>
+      <c r="A212">
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>222</v>
@@ -6007,8 +5981,8 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>207</v>
+      <c r="A213">
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>222</v>
@@ -6027,8 +6001,8 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>208</v>
+      <c r="A214">
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>226</v>
@@ -6047,8 +6021,8 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>209</v>
+      <c r="A215">
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>226</v>
@@ -6067,8 +6041,8 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>210</v>
+      <c r="A216">
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>226</v>
@@ -6087,8 +6061,8 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>211</v>
+      <c r="A217">
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>230</v>
@@ -6107,8 +6081,8 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>212</v>
+      <c r="A218">
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>230</v>
@@ -6127,8 +6101,8 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>213</v>
+      <c r="A219">
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>230</v>
@@ -6147,8 +6121,8 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>214</v>
+      <c r="A220">
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>234</v>
@@ -6167,8 +6141,8 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>215</v>
+      <c r="A221">
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>234</v>
@@ -6187,8 +6161,8 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>216</v>
+      <c r="A222">
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>234</v>
@@ -6207,8 +6181,8 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>217</v>
+      <c r="A223">
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>238</v>
@@ -6227,8 +6201,8 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>218</v>
+      <c r="A224">
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>238</v>
@@ -6247,8 +6221,8 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>219</v>
+      <c r="A225">
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>238</v>
@@ -6267,8 +6241,8 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>220</v>
+      <c r="A226">
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>242</v>
@@ -6287,8 +6261,8 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>221</v>
+      <c r="A227">
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>242</v>
@@ -6307,8 +6281,8 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>222</v>
+      <c r="A228">
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>242</v>
@@ -6327,8 +6301,8 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>223</v>
+      <c r="A229">
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>246</v>
@@ -6347,8 +6321,8 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>224</v>
+      <c r="A230">
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>246</v>
@@ -6367,8 +6341,8 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>225</v>
+      <c r="A231">
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>246</v>
@@ -6387,8 +6361,8 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>226</v>
+      <c r="A232">
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>250</v>
@@ -6407,8 +6381,8 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>227</v>
+      <c r="A233">
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>250</v>
@@ -6427,8 +6401,8 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>228</v>
+      <c r="A234">
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>250</v>
@@ -6447,8 +6421,8 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>229</v>
+      <c r="A235">
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>254</v>
@@ -6467,8 +6441,8 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>230</v>
+      <c r="A236">
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>254</v>
@@ -6487,8 +6461,8 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>231</v>
+      <c r="A237">
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>254</v>
@@ -6507,8 +6481,8 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>232</v>
+      <c r="A238">
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>258</v>
@@ -6527,8 +6501,8 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>233</v>
+      <c r="A239">
+        <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>258</v>
@@ -6547,8 +6521,8 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>234</v>
+      <c r="A240">
+        <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>258</v>
@@ -6567,8 +6541,8 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>235</v>
+      <c r="A241">
+        <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>262</v>
@@ -6587,8 +6561,8 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>236</v>
+      <c r="A242">
+        <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>262</v>
@@ -6607,8 +6581,8 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>237</v>
+      <c r="A243">
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>262</v>
@@ -6627,8 +6601,8 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>238</v>
+      <c r="A244">
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>266</v>
@@ -6647,8 +6621,8 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>239</v>
+      <c r="A245">
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>266</v>
@@ -6667,8 +6641,8 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>240</v>
+      <c r="A246">
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>266</v>
@@ -6687,8 +6661,8 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>241</v>
+      <c r="A247">
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>270</v>
@@ -6707,8 +6681,8 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>242</v>
+      <c r="A248">
+        <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>270</v>
@@ -6727,8 +6701,8 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>243</v>
+      <c r="A249">
+        <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>270</v>
@@ -6747,8 +6721,8 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>244</v>
+      <c r="A250">
+        <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>274</v>
@@ -6767,8 +6741,8 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>245</v>
+      <c r="A251">
+        <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>274</v>
@@ -6787,8 +6761,8 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>246</v>
+      <c r="A252">
+        <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>274</v>
@@ -6807,8 +6781,8 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>247</v>
+      <c r="A253">
+        <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>278</v>
@@ -6827,8 +6801,8 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>248</v>
+      <c r="A254">
+        <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>278</v>
@@ -6847,8 +6821,8 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>249</v>
+      <c r="A255">
+        <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>278</v>
@@ -6867,8 +6841,8 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>250</v>
+      <c r="A256">
+        <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>282</v>
@@ -6887,8 +6861,8 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>251</v>
+      <c r="A257">
+        <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>282</v>
@@ -6907,8 +6881,8 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>252</v>
+      <c r="A258">
+        <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>282</v>
@@ -6927,8 +6901,8 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>253</v>
+      <c r="A259">
+        <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>286</v>
@@ -6947,8 +6921,8 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>254</v>
+      <c r="A260">
+        <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>286</v>
@@ -6967,8 +6941,8 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>255</v>
+      <c r="A261">
+        <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>286</v>
@@ -6987,8 +6961,8 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>256</v>
+      <c r="A262">
+        <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>290</v>
@@ -7007,8 +6981,8 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>257</v>
+      <c r="A263">
+        <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>290</v>
@@ -7027,8 +7001,8 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>258</v>
+      <c r="A264">
+        <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>290</v>
@@ -7047,8 +7021,8 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>259</v>
+      <c r="A265">
+        <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>294</v>
@@ -7067,8 +7041,8 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>260</v>
+      <c r="A266">
+        <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>294</v>
@@ -7087,8 +7061,8 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>261</v>
+      <c r="A267">
+        <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>294</v>
@@ -7107,8 +7081,8 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>262</v>
+      <c r="A268">
+        <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>298</v>
@@ -7127,8 +7101,8 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>263</v>
+      <c r="A269">
+        <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>298</v>
@@ -7147,8 +7121,8 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>264</v>
+      <c r="A270">
+        <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>298</v>
@@ -7167,8 +7141,8 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>265</v>
+      <c r="A271">
+        <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>302</v>
@@ -7187,8 +7161,8 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>266</v>
+      <c r="A272">
+        <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>302</v>
@@ -7207,8 +7181,8 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>267</v>
+      <c r="A273">
+        <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>302</v>
@@ -7227,8 +7201,8 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>268</v>
+      <c r="A274">
+        <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>306</v>
@@ -7247,8 +7221,8 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>269</v>
+      <c r="A275">
+        <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>306</v>
@@ -7267,8 +7241,8 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>270</v>
+      <c r="A276">
+        <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>306</v>
@@ -7287,8 +7261,8 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>271</v>
+      <c r="A277">
+        <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>310</v>
@@ -7307,8 +7281,8 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>272</v>
+      <c r="A278">
+        <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>310</v>
@@ -7327,8 +7301,8 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>273</v>
+      <c r="A279">
+        <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>310</v>
@@ -7347,8 +7321,8 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>274</v>
+      <c r="A280">
+        <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>314</v>
@@ -7367,8 +7341,8 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>275</v>
+      <c r="A281">
+        <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>314</v>
@@ -7387,8 +7361,8 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>276</v>
+      <c r="A282">
+        <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>314</v>
@@ -7407,8 +7381,8 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>277</v>
+      <c r="A283">
+        <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>318</v>
@@ -7427,8 +7401,8 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>278</v>
+      <c r="A284">
+        <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>318</v>
@@ -7447,8 +7421,8 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>279</v>
+      <c r="A285">
+        <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>318</v>
@@ -7467,8 +7441,8 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>280</v>
+      <c r="A286">
+        <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>322</v>
@@ -7487,8 +7461,8 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>281</v>
+      <c r="A287">
+        <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>322</v>
@@ -7507,8 +7481,8 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>282</v>
+      <c r="A288">
+        <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>322</v>
@@ -7527,8 +7501,8 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>283</v>
+      <c r="A289">
+        <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>326</v>
@@ -7547,8 +7521,8 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>284</v>
+      <c r="A290">
+        <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>326</v>
@@ -7567,8 +7541,8 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>285</v>
+      <c r="A291">
+        <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>326</v>
@@ -7587,8 +7561,8 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
-        <v>286</v>
+      <c r="A292">
+        <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>330</v>
@@ -7607,8 +7581,8 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
-        <v>287</v>
+      <c r="A293">
+        <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>330</v>
@@ -7627,8 +7601,8 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
-        <v>288</v>
+      <c r="A294">
+        <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>330</v>
@@ -7647,8 +7621,8 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
-        <v>289</v>
+      <c r="A295">
+        <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>334</v>
@@ -7667,8 +7641,8 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>290</v>
+      <c r="A296">
+        <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>334</v>
@@ -7687,8 +7661,8 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
-        <v>291</v>
+      <c r="A297">
+        <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>334</v>
@@ -7707,8 +7681,8 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
-        <v>292</v>
+      <c r="A298">
+        <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>338</v>
@@ -7727,8 +7701,8 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
-        <v>293</v>
+      <c r="A299">
+        <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>338</v>
@@ -7747,8 +7721,8 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
-        <v>294</v>
+      <c r="A300">
+        <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>338</v>
@@ -7767,8 +7741,8 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>295</v>
+      <c r="A301">
+        <v>300</v>
       </c>
       <c r="B301" t="s">
         <v>342</v>
@@ -7787,8 +7761,8 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
-        <v>296</v>
+      <c r="A302">
+        <v>301</v>
       </c>
       <c r="B302" t="s">
         <v>342</v>
@@ -7807,8 +7781,8 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
-        <v>297</v>
+      <c r="A303">
+        <v>302</v>
       </c>
       <c r="B303" t="s">
         <v>342</v>
@@ -7827,8 +7801,8 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
-        <v>298</v>
+      <c r="A304">
+        <v>303</v>
       </c>
       <c r="B304" t="s">
         <v>346</v>
@@ -7847,8 +7821,8 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
-        <v>299</v>
+      <c r="A305">
+        <v>304</v>
       </c>
       <c r="B305" t="s">
         <v>346</v>
@@ -7867,8 +7841,8 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
-        <v>300</v>
+      <c r="A306">
+        <v>305</v>
       </c>
       <c r="B306" t="s">
         <v>346</v>
@@ -7887,8 +7861,8 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
-        <v>301</v>
+      <c r="A307">
+        <v>306</v>
       </c>
       <c r="B307" t="s">
         <v>350</v>
@@ -7907,8 +7881,8 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
-        <v>302</v>
+      <c r="A308">
+        <v>307</v>
       </c>
       <c r="B308" t="s">
         <v>350</v>
@@ -7927,8 +7901,8 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
-        <v>303</v>
+      <c r="A309">
+        <v>308</v>
       </c>
       <c r="B309" t="s">
         <v>350</v>
@@ -7947,8 +7921,8 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
-        <v>304</v>
+      <c r="A310">
+        <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>354</v>
@@ -7967,8 +7941,8 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
-        <v>305</v>
+      <c r="A311">
+        <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>354</v>
@@ -7987,8 +7961,8 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
-        <v>306</v>
+      <c r="A312">
+        <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>354</v>
@@ -8007,8 +7981,8 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
-        <v>307</v>
+      <c r="A313">
+        <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>358</v>
@@ -8027,8 +8001,8 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
-        <v>308</v>
+      <c r="A314">
+        <v>313</v>
       </c>
       <c r="B314" t="s">
         <v>358</v>
@@ -8047,8 +8021,8 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
-        <v>309</v>
+      <c r="A315">
+        <v>314</v>
       </c>
       <c r="B315" t="s">
         <v>358</v>
@@ -8067,8 +8041,8 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
-        <v>310</v>
+      <c r="A316">
+        <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>362</v>
@@ -8087,8 +8061,8 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
-        <v>311</v>
+      <c r="A317">
+        <v>316</v>
       </c>
       <c r="B317" t="s">
         <v>362</v>

--- a/Physiopathologie/Excel/renale.xlsx
+++ b/Physiopathologie/Excel/renale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F237B75-1BEA-4F61-AA40-D7F521357EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8851E230-D510-49A1-830A-2012CE41D8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="496">
   <si>
     <t>Numero</t>
   </si>
@@ -59,9 +59,6 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">17. Concernant l'hydratation du LEC: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Selon la cause, les états d’hyperhydratation du LEC peuvent s'accompagner d'hypertension artérielle ou d'hypotension artérielle.   </t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t xml:space="preserve"> Lors d'une déshydratation du LEC liée à des pertes extra-rénales, il existe un hyperaldostéronisme 2°"  expliquant un rapport urinaire Na /K° &lt; 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">26. Concernant le LEC et le LIC: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Une prise de poids rapide, en quelques jours, est un signe d'hyperhydratation du LEC.   </t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t xml:space="preserve"> Certains états d’hyperhydratation du LEC peuvent s'accompagner de diminution du volume circulant effectif et de signes d’hypovolémie.    </t>
   </si>
   <si>
-    <t xml:space="preserve">25. Concernant la fonction rénale: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lorsque la glycémie est inférieure à 200 mg/dl, il n'y a pas de glycosurie.   </t>
   </si>
   <si>
@@ -305,93 +296,48 @@
     <t xml:space="preserve"> L'aldostérone est le principal régulateur de la natriurèse en stimulant la réabsorption de NaCI au niveau des segments du tubule rénal qui expriment ENaC    </t>
   </si>
   <si>
-    <t xml:space="preserve">17. Concernant la régulation de la tonicité: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le gradient cortico-médullaire au niveau de l'interstitium rénal peut être multiplié 4 fois en situation d'antidiurèse,  </t>
   </si>
   <si>
-    <t xml:space="preserve">15. Concernant le métabolisme phospho-calcique: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Une carence en vitamine D chez un adulte en bon état général s'accompagne souvent d'une phosphatémie à  la limite supérieure de la normale ou légèrement augmentée.    </t>
   </si>
   <si>
-    <t xml:space="preserve">14. Concernant le métabolisme phospho-calcique:  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'une insuffisance rénale chronique terminale, la phosphatémie diminue.    </t>
   </si>
   <si>
-    <t xml:space="preserve">9, Concernant la fonction rénale:  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Au niveau du tubule proximal, la réabsorption du liquide tubulaire est iso-osmotique.   </t>
   </si>
   <si>
-    <t xml:space="preserve">6. Concernant la fonction rénale: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'acide para amino hippurique est une substance exogène qui est en partie filtrée et en partie sécrétée au niveau péri tubulaire.    </t>
   </si>
   <si>
-    <t xml:space="preserve">5. Concernant la tonicité du LEC: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La natrémie reflète étroitement la tonicité plasmatique.   </t>
   </si>
   <si>
     <t xml:space="preserve"> Les variations de la tonicité plasmatique sont perçues par des osmorécepteurs sensibles à la pression.    </t>
   </si>
   <si>
-    <t xml:space="preserve">4. Concernant la fonction rénale: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le FPR diminue lorsque l'AA se contracte ou lorsque l'AE se contracte.   </t>
   </si>
   <si>
     <t xml:space="preserve"> Une protéinurie sélective est une protéinurie glomérulaire, généralement liée à une perte de charges négatives au niveau des diaphragmes situés entre les pédicelles des podocytes.    </t>
   </si>
   <si>
-    <t xml:space="preserve">33. Concernant la fonction rénale: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La barrière glomérulaire permet un passage variable des molécules dont la taille se situe entre 20 et 35 À, en  fonction de leur charge.   </t>
   </si>
   <si>
-    <t xml:space="preserve">27. Concernant la fonction rénale: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La libération de rénine par les cellules granulaires de l'AA est stimulée par le système orthosympathique qui est activé lors d'une diminution du volume circulant effectif.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'autorégulation du DFG est notamment assurée par un réflexe myogénique au niveau de l'AA qui répond aux variations de la pression artérielle (P</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la clearance de créatinine, exprimée en ml/min, est estimée par la formule: Cle = (Porése, + VU rés </t>
-  </si>
-  <si>
     <t xml:space="preserve"> la branche descendante fine de l’anse de Henlé est située dans la médullaire et est perméable à l’eau. </t>
   </si>
   <si>
-    <t xml:space="preserve"> lorsque le débit de filtration glomérulaire diminue, P,,,, augmente pour maintenir une élimination urinaire  de créatinine égale à sa production. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34. Concernant la régulation de la tonicité: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la clearance d'eau hbre est positive, le rein réabsorbe moins d'eau que de solutés et l'urine est plus diluée que le plasma.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le tubule proximal du rein assure une réabsorption iso-osmotique du liquide tubulaire dont l'importance  varie selon l’osmolalité finale de l'urine.   </t>
   </si>
   <si>
     <t xml:space="preserve"> L'ADH augmente la perméabilité apicale à l’urée au niveau de l'ensemble du tubule collecteur médullaire.    </t>
   </si>
   <si>
-    <t xml:space="preserve">30. Concernant le système rénal: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les vasa recta qui sont de longues boucles vasculaires en forme de U provenant de l’AE se trouvent au niveau des néphrons juxtamédullaires et au niveau de certains néphrons corticaux superficiels.   </t>
   </si>
   <si>
@@ -401,66 +347,24 @@
     <t xml:space="preserve"> Le Tm du glucose correspond au taux de réabsorption tubulaire maximum du glucose et s'exprime en mmoles ou mg.    </t>
   </si>
   <si>
-    <t xml:space="preserve">24. Concernant la régulation phospho-calcique:  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'hyperphosphatémie plasmatique stimule la sécrétion de la PTH par un mécanisme de rétrocontrôle négatif.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> La liaison du Ca°° au récepteur CaSR (calcium sensing receptor) de la cellule principale parathyroïdienne  inhibe la sécrétion de PTH.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'une carence en vitamine D chez un sujet en bon état général, la PTH n'est jamais augmentée,    </t>
   </si>
   <si>
-    <t xml:space="preserve">10. Concernant la régulation phospho-calcique: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les thiazides ont un effet hypocalciurique en stimulant la réabsorption de Ca” via le canal apical TRPVS des cellules tubulaires distales.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La stimulation de l'expression de la 1 «-hydroxylase rénale des cellules tubulaires proximales est favorisée  par l'hyperphosphatémie.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le calcitriol stimule la synthèse de PTH pour renforcer la résorption osseuse.    </t>
   </si>
   <si>
-    <t xml:space="preserve">9, Concernant la régulation de la tonicité: </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jusqu'à preuve du contraire, une hyponatrémie reflète toujours un déficit en sel.   </t>
   </si>
   <si>
     <t xml:space="preserve"> Chez un individu normal, près de 600 mosmoles sont éliminés chaque jour dans les urines, dont 40 à 50%  sont de l'urée.  </t>
   </si>
   <si>
-    <t xml:space="preserve">)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> le tampon HPO*/H;PO2 représente la grande majorité de l'acidité titrable. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> au niveau du tubule collecteur, la sécrétion d’un H° correspond à la réabsorption d’un HCO2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> au niveau des liquides de l'organisme, [H°] est directement proportionnelle à PCO2 et inversement  proportionnel à [HCO2 ]. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l'hémoglobine représente 80°% des tampons non bicarbonate du LEC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lorsque le pH diminue de 1 unité en dessous de son pK,. 90% de l'acide faible est sous forme non dissociée.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l’excrétion urinaire de NH," augmente lorsque le pH urinaire devient plus acide.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> l'ADH augmente la perméabilité apicale à l’urée au niveau de la partie médullaire interne du tubule collecteur (phosphorylation de UT-A1).  </t>
   </si>
   <si>
-    <t xml:space="preserve"> dans un état dans stationnaire, la quantité d'osmoles excrétées par Jour dans l'urine est relativement constante et représente + 600 mosmoles/j de solutés dont 40-50% d'urée.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> lorsque la perfusion de l’artériole afférente augmente, la sécrétion de rénine est stimulée.  </t>
   </si>
   <si>
@@ -479,9 +383,6 @@
     <t xml:space="preserve"> la libération des peptides natriurétiques est favorisée par une diminution du volume circulant effectif et de la pression artérielle.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> l’ADH n'a pas d'effet sur la réabsorption de Na” au niveau du tubule collecteur. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> la barrière glomérulaire peut être considérée comme un tamis relativement serré et chargé positivement qui s'oppose au passage des cations et favorise le passage des petits anions.  </t>
   </si>
   <si>
@@ -491,9 +392,6 @@
     <t xml:space="preserve"> le tubule proximal réabsorbe près de 65 % du Na filtré.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> lorsque CI, &lt; Cline, le soluté est globalement réabsorbé par le tubule (il peut être également sécrété mais la réabsorption l'emporte sur la sécrétion).  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> la clearance du PAH (acide para amino hippurique) est la clearance la plus élevée et est un marqueur du flux plasmatique rénal.  </t>
   </si>
   <si>
@@ -506,21 +404,12 @@
     <t xml:space="preserve"> L’hémoglobine représente 80% des tampons non bicarbonate du LEC.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Face à une perturbation de l’homéostasie acide-base d'origine non pulmonaire, le rein constitue la 2° ligne de  défense de l'organisme.     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les 2 principaux tampons urinaires sont les couples CO/HCO2 et NHS"NH;    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q28. Concernant le débit de filtration glomérulaire (DFG): </t>
   </si>
   <si>
     <t xml:space="preserve"> Certains médicaments comme les inhibiteurs de l’enzyme de conversion entraînent une vasoconstriction au niveau de l'artériole efférente et augmentent ainsi le DFG.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le débit de filtration glomérulaire (DFG) peut être calculé selon la formule de Starling:  DEG = K;. [Py - (Pos + ol.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Au niveau du capillaire glomérulaire fenêtré, la pression d'ultrafiltration nette (AP) n'est positive que sur la première moitié du capillaire.    </t>
   </si>
   <si>
@@ -530,9 +419,6 @@
     <t xml:space="preserve"> La régulation non osmotique de la sécrétion d'ADH est induite par des variations du VCE d'au moins 10%.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le système orthosympathique stimule la libération de rénine au niveau des cellules granulaires de l'artériole afférente (AA) par un effet fi;    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Certains états d'hyperhydratation du LEC s’accompagnent d'hypertension artérielle tandis que d'autres peuvent s'accompagner d'hypovolémie et d'hypotension artérielle.    </t>
   </si>
   <si>
@@ -551,24 +437,9 @@
     <t xml:space="preserve">Q5. Concernant l'homéostasie acide-base: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Si le pH artériel = 7,3 et sachant que le pK du couple COYHCO2 = 6,1, cela implique que log ([CO2 dissout }uéria / [HCO2 anésier) = 1,2.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'acidité titrable représente environ 40% de l’excrétion rénale acide quotidienne, soit 30 mEq/)j    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chaque jour, le rein régénère 4500 mEq de HCO2 filtré.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q4. Concernant la fonction rénale:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Si Use = 30 mg/dl, Pere = 0,5 mg/dl et V = 2L/j, la clearance de la créatinine est égale à 120 L/j    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La charge filtrée d'un soluté x est égale au produit de P, par le débit de filtration glomérulaire.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chez un adulte normal, le débit sanguin rénal est de 1200 ml/min, soit 20-25% du débit cardiaque.    </t>
   </si>
   <si>
@@ -587,33 +458,15 @@
     <t xml:space="preserve">Q19. Concernant la réabsorption tubulaire: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La balance glomérulo-tubulaire permet au tubule proximal de réabsorber une fraction variable de la charge filtrée de Na’ lorsque celle-ci varie suite à des variations du débit de filtration glomérulaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La majorité du glucose filtré est réabsorbée dans la portion proximale du tubule proximal par le SGLTI]  (2Na /1D-glucose) qui est également présent au niveau des cellules villositaires grêles.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les diurétiques thiazidiques inhibent le cotransport Na /K'/2CT (NKCC2) apical.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q11. Concernant l'homéostasie acide-base: </t>
   </si>
   <si>
     <t xml:space="preserve"> Le métabolisme oxydatif produit chaque jour 15 à 20 mmoles/j de CO2   </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'organisme reçoit chaque jour + 70 mEq/j de H° sous forme d'acide non volatil dont l'origine est alimentaire, métabolique et liée à la perte de base par les selles.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le rein assure la régénération quotidienne du HCO2 qui a été consommé en excrétant l'acide non volatil, sous forme d’acidité titrable et de NH4    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q9. Concernant la régulation du LEC:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La quantité de sodium échangeable de l'organisme définit le volume du LEC càäd l'hydratation extracellulaire.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'une hyperhydratation du LEC, la natrémie est toujours diminuée.    </t>
   </si>
   <si>
@@ -623,39 +476,24 @@
     <t xml:space="preserve">Q33. Concernant la réabsorption tubulaire: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Chez un sujet normal, les reins réabsorbent +25.000 mEq/j de Na’, soit près de 80% de la charge filtrée de Na”    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lorsque le Tm du glucose au niveau du tubule proximal est atteint, la glycosurie devient constante.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> L’angiotensine IT stimule la réabsorption tubulaire de NaCT en agissant exclusivement au niveau du tubule proximal et en activant l'échangeur apical Na /H° (NHE3).    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q31. Concernant la régulation de la tonicité du LEC: </t>
   </si>
   <si>
     <t xml:space="preserve"> Au niveau du tubule collecteur, la réabsorption d'eau est modulée par la présence d’ADH et par l'importance du gradient cortico-médullaire.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La clearance d'eau libre négative se calcule par la formule suivante: Teyo = V x [Po Users) = 1]    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pour que le bilan osmolaire et le bilan hydrique restent nuls, le rein adapte l'élimination des apports liquidiens aux osmoles à éliminer.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q3. Concernant la régulation du LEC: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une déshydratation du LEC liée à des pertes digestives iso-osmotiques, 1l existe une perturbation de la balance de l'eau.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le volume du LEC peut être augmenté alors que le volume circulant effectif est diminué.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Un régime occidental apporte en moyenne 9g/j de NaCT soit 155 mEq de NaC1/    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q2. Concernant la régulation de la tonicité du LEC: </t>
   </si>
   <si>
@@ -674,42 +512,24 @@
     <t xml:space="preserve"> Lors d'une vasoconstriction de l'artériole efférente du glomérule, le DFG et le FPR varient dans le même sens.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Une réduction du DFG peut s'observer lorsque P,:4 augmente.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'autorégulation est une régulation extrinsèque du DFG qui permet de le maintenir quasi constant lorsque la pression artérielle varie entre 90 et 180 mmHg.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q26. Concernant les tampons de l'organisme:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le pouvoir tampon non CO/HCO2 du plasma est représenté majoritairement par le tampon phosphate,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les concentrations plasmatiques artérielles de HCOY et du CO2 dissout sont de l'ordre de 10° fois supérieures à la concentration artérielle plasmatique de H°    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> En absence de tampons urinaires et même si le pH urinaire pouvait descendre à 4, 11 faudrait uriner 600L/; pour éliminer quotidiennement 60 mEq d'acides fixes.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q23. Concernant la régulation de la tonicité du LEC: </t>
   </si>
   <si>
     <t xml:space="preserve"> Pour éliminer 450 mosmoles/j lorsque le pouvoir de concentration de l'urine est limité à 900 mosm/kg, il faut au minimum un volume quotidien de 500 ml d'urine.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la clearance d'eau libre est négative, Usm/Pasm &gt; 1 et les urines sont diluées.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La branche ascendante large de Henlé qui permet de générer une urine hypotonique est le segment de concentration de l'urine.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q34. Concernant les tampons de l'organisme: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le tampon H;PO2/HPO2” qui représente la majorité de l'acidité titrable n'est pourtant pas le tampon urinaire majeur lors d’une acidose.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Comme le pH urinaire ne peut descendre en dessous de 4,5, l'élimination des acides forts dont le pKa est très  petit (&lt; 1) est impossible.   </t>
   </si>
   <si>
@@ -722,24 +542,15 @@
     <t xml:space="preserve"> Le phénomène de splay pour le glucose est lié à la différence de capacité de transport maximale des transporteurs SGLTI et SGLT2 du tubule proximal et à une certaine hétérogénéité des différents tubules.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Dans les conditions normales, les reins réabsorbent quotidiennement plus de 99% de la charge filtrée de Na”   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les antagonistes de l'aldostérone font partie de la catégorie des diurétiques d'épargne potassique.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q26. Concernant le débit de filtration glomérulaire (DFG): </t>
   </si>
   <si>
-    <t xml:space="preserve"> La dilatation de l’artériole efférente (AE) induite par certains médicaments (comme les inhibiteurs de l’enzyme de conversion) diminue P., et réduit ainsi le DFG.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lorsque le VCE est diminué, l'administration d'AINS, qui réduisent la vasodilatation de l'artériole afférente  (AA), risque de précipiter une insuffisance rénale aigue.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> A faibles concentrations, l° angiotensine Il (AGIT) diminue le DFG par son effet vasoconstricteur sur l’artériole  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q24. Concernant la fonction rénale: </t>
   </si>
   <si>
@@ -755,9 +566,6 @@
     <t xml:space="preserve">Q10. Concernant le débit de filtration glomérulaire (DFG): </t>
   </si>
   <si>
-    <t xml:space="preserve"> La relation de Starling simplifiée appliquée au capillaire glomérulaire fenêtré est la suivante: DFG = K;. AP sachant que AP = [Pay — (Pes + Ty]   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lorsque la taille de dextrans polyanioniques devient inférieure à 20 À, leur filtration glomérulaire peut  atteindre près de 100%.   </t>
   </si>
   <si>
@@ -770,12 +578,6 @@
     <t xml:space="preserve"> Tous les corpuscules rénaux sont situés au niveau du cortex.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Si Us = 40 mg/dl, Poe = 0,8 mg/dl et V = 2L/j, la clearance de la créatinine est égale à 100L/j    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le flux plasmatique rénal normal est de 625 ml/min.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q15. Concernant l'homéostasie acide-base:  </t>
   </si>
   <si>
@@ -785,15 +587,9 @@
     <t xml:space="preserve"> La PaCO2 normale se situe entre 20 et 24 mm Hg    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une acidose respiratoire chronique, la compensation rénale qui augmente la concentration plasmatique de HCO2 vise à garder le rapport PaCO2/[HCO2 ] constant,    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q13. Concernant la régulation de la tonicité du LEC: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La natrémie reflète étroitement la tonicité plasmatique càd la tonicité du LEC (le Na° et les anions qui l'accompagnent représentant 90% de la tonicité du plasma)   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Au niveau du tubule collecteur, la réabsorption d'eau est uniquement dépendante de la présence d’ADH.    </t>
   </si>
   <si>
@@ -803,39 +599,21 @@
     <t xml:space="preserve">Q8. Concernant la régulation du LEC: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les peptides natriurétiques induisent une vasodilatation rénale, principalement au niveau de l'artériole afférente, ce qui augmente la charge filtrée de Na° et la natriurèse.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une déshydratation du LEC liée à des pertes extra-rénales, la rénine plasmatique augmente, ce qui induit  un état d'hyperaldostéronisme 2°" permettant de réduire la natriurie (&lt; 10 mmoles/j).     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lorsque le bilan du sodium est positif, cela signifie que la natrémie est élevée.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q5. Concernant la régulation de la tonicité du LEC: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le set point ou seuil de déclenchement de la sécrétion d'ADH est défini génétiquement et est de 300 mosm/kg chez un individu normal.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pour maintenir l'osmolalité du LEC constante, le rein fixe la quantité de solutés à éliminer et adapte ensuite la  quantité d'eau à réabsorber ou à éliminer.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Chez l'individu normal, la sécrétion non osmotique d'ADH est physiologiquement importante.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q35. Concernant la régulation de la tonicité du LEC: </t>
   </si>
   <si>
     <t xml:space="preserve"> Jusqu'à preuve du contraire, une hypernatrémie ne reflète pas un excès en sel mais un déficit en eau.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Chez l'individu normal dont l'état d'hydratation extracellulaire est normal, la sécrétion non osmotique d'ADH est importante.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Une circulation à contre-courant est un dispositif actif qui limite les pertes de solutés mais qui ne permet pas de générer un gradient d'osmolalité.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q28. Concernant l'homéostasie acide-base:  </t>
   </si>
   <si>
@@ -854,21 +632,9 @@
     <t xml:space="preserve"> Lors d'une protéinure non-sélective, le profil électrophorétique des protéines urinaires est identique à celui d’une électrophorèse des protéines plasmatiques.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La relation de Starling appliquée au capillaire glomérulaire fenêtré est la suivante:  DEG = K;.[P,4 - (Pen - Lu]   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La barrière glomérulaire empêche le passage des molécules dont la taille est supérieure à 42 À.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q23. Concernant le débit de filtration glomérulaire (DFG): </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'autorégulation est un mécanisme de régulation à la fois intrinsèque et extrinsèque de R; permettant de maintenir le FPR et le DFG constants lorsque la pression artérielle varie entre 90 et 180 mmHg.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque le VCE est diminué, la contraction de l’artériole efférente (AE) permet d'augmenter P, et ainsi  d'atténuer la réduction du DFG.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les prostaglandines maintiennent une certaine vasodilatation de l'AA (artériole afférente) lorsque le VCE est diminué.    </t>
   </si>
   <si>
@@ -881,24 +647,6 @@
     <t xml:space="preserve"> Dans les conditions normales, la clearance du glucose n'est pas nulle.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'angiotensine Il stimule l'échangeur apical Na /H° (NHE3) du tubule proximal, ce qui favorise la réabsorption tubulaire proximale de NaCT et de NaHCO2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6. Concernant la clearance et les mécanismes de dilution et de concentration des urines, caractériser par 12345 ou 45678 chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soit un adulte dont la fonction rénale est normale, dont les pertes liquidiennes extra-rénales sont de 0,6L/j et dont les apports osmolaires quotidiens sont de 100 mosm. Dans ces conditions, une hyponatrémie va se développer si ses apports liquidiens dépassent 2,6L/).    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Un sujet adulte et en bonne santé reçoit une dose de gliflozine par voie orale. Si Pyucos = 80 mg/dl, Clesésinine =  120 ml/min et si l'excrétion urinaire de glucose est de 48 mg/min, on peut en déduire que 50% du glucose n'est pas réabsorbé au niveau du tubule proximal.      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque le débit urinaire est de 1L/j avec Um = 560 mosm/kg et Pom = 280 mosm/kg, la clearance d'eau libre  est négative (-1L/j}, ce qui est compatible avec une situation où le VCE est augmenté.      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q27. Un patient de 35 ans, sans antécédents particuliers, se présente aux urgences pour une diarrhée sévère et non sanglante qui évolue depuis 4 jours. || indique que sa fille de 2 ans qui est à la crèche a contracté un rotavirus.  Examen clinique: hypotension orthostatique ; muqueuses sèches  Biologie: Na° 135 mEqg/L (135-145); K° 2,8 mEq/L (3,5-4,8); CF 112 mEq/L (97-109); glucose 70 mg/dL (70-100); urée 44 mg/dL (15-40); créatinine 1,4 mg/dL (0,7-1,2)  Gazométrie artérielle (air ambiant): pH 7,20; HCO2 9 mEq/L; PaCO2 23 mmHg Caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Compte tenu des résultats, il y a lieu de suspecter que le patient a également présenté des vomissements abondants qu'il n'a cependant pas mentionnés.   </t>
   </si>
   <si>
@@ -908,9 +656,6 @@
     <t xml:space="preserve"> Si la kaliurie était dosée sur un échantillon urinaire, elle devrait être faible et inférieure à 40 mEg/L.    </t>
   </si>
   <si>
-    <t xml:space="preserve">Q26. Un homme de 50 ans, sans antécédents particuliers, a été renversé par une voiture. Il est admis en urgence pour une fracture ouverte de la jambe droite avec hémorragie importante. Il est conscient.  Examen cliniaue: TA 9/7, RC 120 battements/min, régulier; respiration rapide et profonde,  Biologie: hémoglobine 7g/dL (13-18) Na° 137 mEq/L; K' 4,0 mEq/L (3,5-4,8}; CI 106 mEq/L (97-109); glucose 90 mg/dL; urée 40 mg/dl (15-40); créatinine 1,1 mg/dL (0,7-1,2) ; albumine 44 g/L (40-48)  Gazométrie artérielle (air ambiant): pH 7,30; PaCO 25 mm Hg; HCO2 12 mEq/L (22-26) ; SpO2 98% Caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le patient présente une acidose métabolique compensée. Le trou anionique plasmatique est augmenté (19 mEqa/Lj} et s'explique très probablement par la production de lactate (dont le taux plasmatique n'est pas indiqué  dans l'énoncé).   </t>
   </si>
   <si>
@@ -926,9 +671,6 @@
     <t xml:space="preserve"> Un diabète insipide (néphrogénique ou central) méconnu peut se révéler à la suite d’une restriction de l'accès à l'eau.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Une épreuve de restriction hydrique est réalisée dans le cadre de la mise au point d'une polyurie avec urines diluées chez une femme de 25 ans sans antécédents médicaux particuliers. On constate que le débit urinaire diminue nettement, que P..n augmente et que la natrémie se normalise. U.., augmente également pour atteindre sa valeur maximale qui est cependant inférieure à 1200 mosm/kg. Dans ces conditions, le diagnostic peut être établi et il n'est pas nécessaire de devoir injecter de la desmopressine |V.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La biologie d'un adulte de 60 ans et qui ne prend pas de médicaments montre, notamment, une glycémie normale et une hypophosphatémie. La biologie urinaire met en évidence la présence de glucose et de protéines de bas poids moléculaire ainsi qu'une phosphaturie. Dans ces conditions, un syndrome de Fanconi acquis est un diagnostic possible.    </t>
   </si>
   <si>
@@ -941,18 +683,9 @@
     <t xml:space="preserve"> Lors d'une carence en vitamine D chez un adulte en bonne santé, la calcémie est souvent diminuée.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> La liaison du Ca** avec le CaSR situé dans la membrane de la cellule principale parathyroïdienne induit une inhibition de la sécrétion de PTH.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q33. Un patient de 57 ans bénéficie d'une intervention intestinale et une sonde nasogastrique en aspiration continue est mise en place à la fin de l'intervention.  Au 4ème jour post opératoire, alors que la sonde est toujours en place mais n'est plus en aspiration depuis la veille:  Examen clinique: hypotension orthostatique Biologie: Na° 134 mEq/L (135-145); K° 3,0 mEq/L (3,5-4,8); Cl 93 mEa/L (97-109); glucose 70 mg/dL (70-100); urée 44 mg/dL (15-40); créatinine 1,4 mg/dL (0,7-1,2) Gazométrie artérielle (air ambiant): pH 7,49; HCO2 35 mEq/L; PaCO2 49 mmH£g Caractériser par Vrai ou Faux chacune des propositions suivantes. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'hypokaliémie s'explique principalement par des pertes digestives de potassium.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Si un échantillon d'urine est prélevé, la concentration de CF urinaire sera inférieure à 15 mEq/L et le pH urinaire devrait être paradoxalement acide, soit entre 5 et 5,5.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pour rétablir l'ionogramme et revenir à un pH normal, il suffi retirer la son ‘aspiration rique.     </t>
   </si>
   <si>
@@ -965,15 +698,9 @@
     <t xml:space="preserve"> En antidiurèse, le liquide tubulaire quittant la partie proximale du tubule distal est déjà fortement hypertonique.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> La circulation à contre-courant est un dispositif actif qui limite les pertes de solutés et qui permet de générer  un gradient d'osmolalité.     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q29. Concernant les dysnatrémies, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'un SIADH, l'osmolalité urinaire reste adaptée (LU... &gt; 100 mosm/kg) dans la mesure où la natriurie correspond aux apports quotidiens de Na.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors de sudations profuses, les pertes liquidiennes sont hypotoniques et favorisent le développement d'un état  de déshydratation extracellulaire avec hyponatrémie.   </t>
   </si>
   <si>
@@ -983,9 +710,6 @@
     <t xml:space="preserve">Q20. Concernant la barrière glomérulaire et la régulation du DFG, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une réduction importante du VCE, la stimulation orthosympathique intense induit principalement une vasoconstriction de l'artériole efférente (AE) qui réduit P., et le DFG.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les dextrans neutres et polycationiques dont la taille est inférieure à 20 À sont librement filtrés au niveau de la barrière glomérulaire.   </t>
   </si>
   <si>
@@ -1007,15 +731,9 @@
     <t xml:space="preserve">Q6. Concernant la clearance et la dilution de l'urine, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Un patient présente un trouble de dilution de l'urine ne lui permettant pas de descendre en dessous de 200 mosm/kg H:0. Il doit éliminer quotidiennement 550 mosm urinaires et ses pertes liquidiennes extra-rénales sont de 0,5L/j. Dans ces conditions, si ses apports hydriques sont supérieurs à 3,25L/)j, il développera une hyponatrémie.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Un patient présente une créatinine plasmatique de 0,8 mg/dLl avec un débit urinaire de 2,4 L/24h et une créatinine urinaire de 48 mg/dL. Dans ces conditions, la clearance de la créatinine est de 100 ml/min.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque Ussmn/Pasm est &gt; 1, la clearance d'eau libre est positive.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q40. Concernant le tubule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
@@ -1031,33 +749,12 @@
     <t xml:space="preserve">Q27. Concernant les urines, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Soit des urines de 24h recueillies chez un adulte de 30 ans et en bonne santé dans le cadre d'un bilan de santé: volume 1,5 L ; Un, 80 mEq/L, Ux 40 mEq/L, Uure 1200 mg/dL (PM urée = 60) et U..., = 470 mosm/kg. Dans ces conditions, il est important de calculer le trou osmotique urinaire qui est égal +30 mosm/kg.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une acidose métabolique, la mesure du pH urinaire permet de déterminer la concentration urinaire de NH   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le tampon H2PO4/HPO4* représente la grande majorité de l'acidité titrable, cad de l'ensemble des tampons urinaires non HCO2 et non NH; qui lient H'.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q26. Un homme de 24 ans est admis aux urgences pour polyurie-polydipsie.  Examen cliniaue: respiration rapide et profonde; TA 90/60 mmhHg et rythme cardiaque 132/minute, régulier.  Biologie olasmatiaque: Na° 147mmol/L (135-145); K‘ 3,5 mmol/L (3,5-4,8); CI 99 mmol/L (97-109); glycémie 483 mg/dL (70-100); créatinine 1,3 mg/dL (0,7-1,2}; urée 64 mg/dL (15-40); lactate 1,9 mmol/L (0,4-2,2).  Gazométrie artérielle (air ambiant): pH 7,28; PaCO2 30 mmHg; PaO2 104 mmHg; HCO2 14 mEqg/L Urines: débit 210 ml/h; osmolalité: 580 mosm/kg; kaliurie 40mEq/L Caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Compte tenu de la situation clinique, la compensation respiratoire est adéquate. Le calcul de là AaäPO2 qui est de 8,5 mmHg confirme d'ailleurs qu'il n'y a pas de pathologie respiratoire associée.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dans la mesure où la kaliémie est normale, on peut en déduire qu'il n'y à pas de déficit du pool de potassium.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Dans le cas présent, comme le A/A est &gt; 2, une alcalose métabolique concomitante, induite par des vomissements ayant précédé l'admission, est très probable.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q24. Concernant les diurétiques, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les thiazides induisent une hypocalciurie en stimulant la réabsorption tubulaire proximale du Ca°*   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'un traitement chronique par diurétique de l'anse, les cellules tubulaires distales s'hypertrophient et leur nombre de NCC augmente. Il en résulte une augmentation de la réabsorption de NaCI qui réduit l'effet des diurétiques de l'anse,   </t>
   </si>
   <si>
@@ -1070,15 +767,9 @@
     <t xml:space="preserve"> La prise de B-bloquants non-sélectifs peut favoriser une hyperkaliémie post prandiale.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Une acidose métabolique organique à trou anionique plasmatique augmenté s'accompagne généralement d'hyperkaliémie,   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Une HTA est mise en évidence chez un homme de 35 ans dans le cadre d'un bilan de santé. Il n'a pas d' antécédents médicaux particuliers et ne prend pas de médicaments. L'examen clinique est sans particularité. II existe une hypokaliémie et la kaliurie est &gt; 40 mmoles/L. Dans ces conditions, et avant toute mise au point complémentaire, une sténose unilatérale de l'artère rénale est un diagnostic plausible.    </t>
   </si>
   <si>
-    <t xml:space="preserve">Q33. Un patient cirrhotique d'origine éthylique se présente pour un ictère et l'apparition d'œdèmes des membres inférieurs. Son poids a augmenté de 6 kg en 4 jours. Le régime sans sel (&lt; 100 mEqg/j) n'est pas suivi et le patient continue à consommer de l'alcool.  Examen clinique: PA en position allongée 95/70 mmHg et rythme cardiaque 114/min régulier. Ictère. Présence d'ascite et d'œdèmes des membres inférieurs.  Biologie: Hb 14 g/dL (13,5-17,5), Na° 129 mEq/L; K° 3,6 mEq/L; urée 36 mg/dL (15-40); créat 1,1 mg/dL (0,7-1,2}; bili totale 8,5 mg/dL (&lt;1,2), bili directe 1,6 mg/dL; albumine 3,0 g/dL (4,0-4,8); glycémie 90 mg/dL; PT 60%  Urine de 24h: 850 ml; osmolalité 700 mosm/kg; créatinine 200 mg/dl; Na° 25 mEq/L Caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Il existe une hyperhydratation du LEC favorisée uniquement par l'hyperaldostéronisme secondaire induit par la  réduction du VCE.   </t>
   </si>
   <si>
@@ -1094,18 +785,12 @@
     <t xml:space="preserve"> La protéinurie physiologique &lt; 150 mg/24h comprend + 50% de protéines de bas poids moléculaire dont l'albumine et 450% de protéines tubulaires de Tamm-Horsfall.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La tigette urinaire permet de mettre en évidence une protéinurie de surcharge qui est liée à la présence de  chaines légères et qui est généralement &gt; 2g/)    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Si le profil électrophorétique des protéines urinaires est identique à celui de l'électrophorèse des protéines plasmatiques, une protéinurie tubulaire non sélective doit être suspectée.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q30. Concernant la régulation phospho-calcique, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La PTH stimule la formation de calcitriol au niveau de la cellule tubulaire proximale en stimulant l'expression de la 1 a-hydroxylase mitochondriale.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'une insuffisance rénale chronique, l'hyperparathyroïdie secondaire se développe tardivement.    </t>
   </si>
   <si>
@@ -1118,9 +803,6 @@
     <t xml:space="preserve"> En présence d'une polyurie avec urines diluées et d'un VCE cliniquement normal, la natrémie est un élément utile pour orienter le diagnostic   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Chez un individu qui boit plusieurs litres de bière par jour, les urines sont diluées mais l'osmolalité urinaire de  24h est généralement normale et de l'ordre de 600 mosm/i.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Une personne âgée dont les apports osmolaires sont faibles (100 mosm/j) présente une hyponatrémie hypo- osmolaire. Son hydratation extracellulaire et son VCE sont cliniquement normaux et elle ne prend pas de médicaments. Dans ces conditions, si ses urines sont diluées, on peut considérer que l'osmolalité urinaire est adaptée mais insuffisante.    </t>
   </si>
   <si>
@@ -1350,6 +1032,498 @@
   </si>
   <si>
     <t xml:space="preserve"> L'angiotensine II stimule la sécrétion d’ADH et stimule le centre de la soif.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'autorégulation du DFG est notamment assurée par un réflexe myogénique au niveau de l'AA qui répond aux variations de la pression artérielle (PA) : lorsque la PA augmente au niveau de l'AA, celle-ci se relache </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la clearance de créatinine, exprimée en ml/min, est estimée par la formule: Cl_creat = (P_creat *  V) / U_creat </t>
+  </si>
+  <si>
+    <t>Le réflèxe myogénique est présent pour protéger le glomérule contre les effets déléteres d'une augmentation de la pression artérielle, de ce fait, que la PA augmente, l'artériole afférente (en amont donc) va se contracter pour limiter le débit et protéger le glomérule</t>
+  </si>
+  <si>
+    <t>C'est Ucreat * V / Pcreat, la clearance représente ce que t'arrive à éliminer donc c'est la concentration de l'urine qui est au numérateur et la concentration plasmatique au dénominateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lorsque le débit de filtration glomérulaire diminue, Pcreat augmente pour maintenir une élimination urinaire  de créatinine égale à sa production. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la clearance d'eau libre est positive, le rein réabsorbe moins d'eau que de solutés et l'urine est plus diluée que le plasma.   </t>
+  </si>
+  <si>
+    <t>ça ne dépend pas de l'osmolalité de l'urine</t>
+  </si>
+  <si>
+    <t>que au niveau de la partie médullaire interne du tubule collecteur</t>
+  </si>
+  <si>
+    <t>que au niveau des néphrons juxtamédullaire</t>
+  </si>
+  <si>
+    <t>c'est en mg/min</t>
+  </si>
+  <si>
+    <t>bizarre bizarre pour le système de retrocontrole negatif psk ça concerne le Ca mais bon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La liaison du Ca2+au récepteur CaSR (calcium sensing receptor) de la cellule principale parathyroïdienne  inhibe la sécrétion de PTH.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les thiazides ont un effet hypocalciurique en stimulant la réabsorption de Ca2+ via le canal apical TRPV5 des cellules tubulaires distales.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La stimulation de l'expression de la 1 alpha-hydroxylase rénale des cellules tubulaires proximales est favorisée  par l'hyperphosphatémie.   </t>
+  </si>
+  <si>
+    <t>c'est inhibé</t>
+  </si>
+  <si>
+    <t>bien que les deux renforcent la résorption osseuse, la présence de calcitriol inhibe la synthese de PTH</t>
+  </si>
+  <si>
+    <t>qd on sait pas, c'est tjr la flotte le pb</t>
+  </si>
+  <si>
+    <t>La sécrétion osmotique d'ADH est influencée par une variation plasmatique d'à peine 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le tampon HPO42-/H2PO4- représente la grande majorité de l'acidité titrable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> au niveau du tubule collecteur, la sécrétion d’un H+ correspond à la réabsorption d’un HCO3-</t>
+  </si>
+  <si>
+    <t>il est régénéré et non réabsorbé vu que le tubule collecteur est à la fin, on peut pas trop récup le HCO3- du coup on en génère de nouveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> au niveau des liquides de l'organisme, [H+] est directement proportionnelle à PCO2 et inversement  proportionnel à [HCO3-]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'hémoglobine représente 80% des tampons non bicarbonate du LEC. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lorsque le pH diminue de 1 unité en dessous de son pKa. 90% de l'acide faible est sous forme non dissociée.  </t>
+  </si>
+  <si>
+    <t>dixit cours de physio g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’excrétion urinaire de NH4+ augmente lorsque le pH urinaire devient plus acide.  </t>
+  </si>
+  <si>
+    <t>pas toujours le cas</t>
+  </si>
+  <si>
+    <t>dispositif passif</t>
+  </si>
+  <si>
+    <t>c'est par une augmentation du VCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’ADH n'a pas d'effet sur la réabsorption de Na+ au niveau du tubule collecteur. </t>
+  </si>
+  <si>
+    <t>si ça en a</t>
+  </si>
+  <si>
+    <t>c'est chargé négativement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lorsque CI_x &lt; Cl_inuline, le soluté est globalement réabsorbé par le tubule (il peut être également sécrété mais la réabsorption l'emporte sur la sécrétion).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Face à une perturbation de l’homéostasie acide-base d'origine non pulmonaire, le rein constitue la 2eme ligne de  défense de l'organisme.     </t>
+  </si>
+  <si>
+    <t>constitue la 3eme ligne de défense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les 2 principaux tampons urinaires sont les couples CO2/HCO3- et NH4+/NH3   </t>
+  </si>
+  <si>
+    <t>faux c'est H2PO4-/HPO2- l'autre tampon urinaire</t>
+  </si>
+  <si>
+    <t>ça vasodilate l'AE et du coup la DFG diminue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit de filtration glomérulaire (DFG) peut être calculé selon la formule de Starling:  DFG = Kf * [P_cg - (P_EB + Pi_cg)]</t>
+  </si>
+  <si>
+    <t>reste positif tout au long du capilairre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique stimule la libération de rénine au niveau des cellules granulaires de l'artériole afférente (AA) par un effet beta-1</t>
+  </si>
+  <si>
+    <t>Si le soluté est librement filtrée, c'est qu'il passe librement à travers le glomérule, or si sa clearance est nulle, c'est qu'il ne se retrouve pas du tout dans l'urine, donc entre temps, le soluté s'est fait totalement réabsorbé</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le pH artériel = 7,3 et sachant que le pK du couple CO2/HCO23-= 6,1, cela implique que log ([CO2 dissout ]arteriel / ([HCO3-]artériel) = 1,2.    </t>
+  </si>
+  <si>
+    <t>c'est le log de l'inverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acidité titrable représente environ 40% de l’excrétion rénale acide quotidienne, soit 30 mEq/j    </t>
+  </si>
+  <si>
+    <t>réabsorbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chaque jour, le rein régénère 4500 mEq de HCO3- filtré.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si Ucreat = 30 mg/dl, Pcreat = 0,5 mg/dl et V = 2L/j, la clearance de la créatinine est égale à 120 L/j    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La charge filtrée d'un soluté x est égale au produit de Px par le débit de filtration glomérulaire.    </t>
+  </si>
+  <si>
+    <t>vu que c'est exogene et que faut donc l'injecter, c'est relou à utiliser en clinique alors qu'on a déjà le goat mr creatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La balance glomérulo-tubulaire permet au tubule proximal de réabsorber une fraction variable de la charge filtrée de Na+ lorsque celle-ci varie suite à des variations du débit de filtration glomérulaire.   </t>
+  </si>
+  <si>
+    <t>c'est une fraction constante</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La majorité du glucose filtré est réabsorbée dans la portion proximale du tubule proximal par le SGLT1 (2Na /1D-glucose) qui est également présent au niveau des cellules villositaires grêles.   </t>
+  </si>
+  <si>
+    <t>La majorité par SGLT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les diurétiques thiazidiques inhibent le cotransport Na+/K+/2Cl (NKCC2) apical.    </t>
+  </si>
+  <si>
+    <t>c'est les diurétiques de l'anse qui inhibent le NKCC2</t>
+  </si>
+  <si>
+    <t>c'est des moles et pas des mmoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'organisme reçoit chaque jour + ou - 70 mEq/j de H+ sous forme d'acide non volatil dont l'origine est alimentaire, métabolique et liée à la perte de base par les selles.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le rein assure la régénération quotidienne du HCO3- qui a été consommé en excrétant l'acide non volatil, sous forme d’acidité titrable et de NH4+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La quantité de sodium échangeable de l'organisme définit le volume du LEC cäd l'hydratation extracellulaire.    </t>
+  </si>
+  <si>
+    <t>pas tjr</t>
+  </si>
+  <si>
+    <t>Il faut que la variation soit sup à 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un sujet normal, les reins réabsorbent + ou - 25.000 mEq/j de Na+, soit près de 80% de la charge filtrée de Na+</t>
+  </si>
+  <si>
+    <t>C'est plus de 99%</t>
+  </si>
+  <si>
+    <t>Elle augmente linéairement, en gros à valeur de Tm, les transporteurs qui récuperent le glucose pour pas qu'il finisse dans l'urine sont saturés, donc le surplus de glucose va juste s'ajouter linéairement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’angiotensine II stimule la réabsorption tubulaire de NaCl en agissant exclusivement au niveau du tubule proximal et en activant l'échangeur apical Na+/H+ (NHE3).    </t>
+  </si>
+  <si>
+    <t>pas exclusivement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La clearance d'eau libre négative se calcule par la formule suivante: Tc_H2O = V x [Posm/ Uosm) - 1]    </t>
+  </si>
+  <si>
+    <t>faut exchanger Posm et Uosm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une déshydratation du LEC liée à des pertes digestives iso-osmotiques, il existe une perturbation de la balance de l'eau.    </t>
+  </si>
+  <si>
+    <t>c'est lié à une perturbation de la balance de Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un régime occidental apporte en moyenne 9g/j de NaCl soit 155 mEq de NaCl</t>
+  </si>
+  <si>
+    <t>c'est 4 fois pas 10 fois</t>
+  </si>
+  <si>
+    <t>encore une fois il a craqué et il a mis vrai mais c'est faux dans mon livre (et dans son cours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une réduction du DFG peut s'observer lorsque P_EB augmente.    </t>
+  </si>
+  <si>
+    <t>c'est intrinsèque et pas extrinsèque</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le pouvoir tampon non CO2/HCO3- du plasma est représenté majoritairement par le tampon phosphate</t>
+  </si>
+  <si>
+    <t>c'est principalement les protéines plasmatiques, notamment l'albumine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les concentrations plasmatiques artérielles de HCO3- et du CO2 dissout sont de l'ordre de 1000 fois supérieures à la concentration artérielle plasmatique de H+</t>
+  </si>
+  <si>
+    <t>pas 1000 fois mais 1 000 000, il y a les micromoles entre les mili et les nanomoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En absence de tampons urinaires et même si le pH urinaire pouvait descendre à 4, il faudrait uriner 600L/j pour éliminer quotidiennement 60 mEq d'acides fixes.    </t>
+  </si>
+  <si>
+    <t>pH à 4 -&gt; concentration urinaire en H+ à 0,0001 Eq/L, il faut éliminer 60 mEq soit 0,06 Eq, donc 0,06/0,0001 = 600L</t>
+  </si>
+  <si>
+    <t>900mosm/kg * 0,5L/j = 450mosm/j (1L = 1kg tkt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la clearance d'eau libre est négative, Uosm/Posm &gt; 1 et les urines sont diluées.    </t>
+  </si>
+  <si>
+    <t>les urines sont concentrées</t>
+  </si>
+  <si>
+    <t>c'est le segment de dilution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le tampon H2PO4-/HPO4-- qui représente la majorité de l'acidité titrable n'est pourtant pas le tampon urinaire majeur lors d’une acidose.   </t>
+  </si>
+  <si>
+    <t>jsp c'est qui mais c'est pas lui en tout cas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les conditions normales, les reins réabsorbent quotidiennement plus de 99% de la charge filtrée de Na+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dilatation de l’artériole efférente (AE) induite par certains médicaments (comme les inhibiteurs de l’enzyme de conversion) diminue Pcg et réduit ainsi le DFG.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A faibles concentrations, l'angiotensine II (AGII) diminue le DFG par son effet vasoconstricteur sur l’artériole  afférente (AA), celle-ci étant plus sensible à l'action de l'angiotensine II que l'artériole éfférente (AE)</t>
+  </si>
+  <si>
+    <t>l'AE est plus sensible à l'AGII que l'AA</t>
+  </si>
+  <si>
+    <t>un seul et unique</t>
+  </si>
+  <si>
+    <t>c'est en % vu que c'est une fraction</t>
+  </si>
+  <si>
+    <t>nan justement c'est pour ça que c'est le goat mr creatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La relation de Starling simplifiée appliquée au capillaire glomérulaire fenêtré est la suivante: DFG = Kf * DeltaP_UF sachant que DeltaP_UF = [Pcg - (P_EB+ Pi_cg)]   </t>
+  </si>
+  <si>
+    <t>non elle reste autour de 50%</t>
+  </si>
+  <si>
+    <t>pas atteint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si Ucreat = 40 mg/dl, Pcreat = 0,8 mg/dl et V = 2L/j, la clearance de la créatinine est égale à 100L/j    </t>
+  </si>
+  <si>
+    <t>2*40/0,8 = 100L/j</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une acidose respiratoire chronique, la compensation rénale qui augmente la concentration plasmatique de HCO3- vise à garder le rapport PaCO2/[HCO3- ] constant,    </t>
+  </si>
+  <si>
+    <t>autour de 40 mmHg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La natrémie reflète étroitement la tonicité plasmatique càd la tonicité du LEC (le Na+ et les anions qui l'accompagnent représentant &gt; 90% de la tonicité du plasma)   </t>
+  </si>
+  <si>
+    <t>ça dépend aussi du gradient</t>
+  </si>
+  <si>
+    <t>100/2,5 = 40msosm/L or la concentration urinaire minimal est de 50mosm/kg (celle maximale est de 1200mosm/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les peptides natriurétiques induisent une vasodilatation rénale, principalement au niveau de l'artériole afférente, ce qui augmente la charge filtrée de Na+ et la natriurèse.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une déshydratation du LEC liée à des pertes extra-rénales, la rénine plasmatique augmente, ce qui induit  un état d'hyperaldostéronisme 2ndaire permettant de réduire la natriurie (&lt; 10 mmoles/j).     </t>
+  </si>
+  <si>
+    <t>aucun rapport avec la natrémie</t>
+  </si>
+  <si>
+    <t>c'est 1/3</t>
+  </si>
+  <si>
+    <t>82 + 16 = 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'autorégulation est un mécanisme de régulation à la fois intrinsèque et extrinsèque de R_A permettant de maintenir le FPR et le DFG constants lorsque la pression artérielle varie entre 90 et 180 mmHg.   </t>
+  </si>
+  <si>
+    <t>uniquement intrinsèque</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le VCE est diminué, la contraction de l’artériole efférente (AE) permet d'augmenter Pcg et ainsi  d'atténuer la réduction du DFG.   </t>
+  </si>
+  <si>
+    <t>si elle est nulle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'angiotensine Il stimule l'échangeur apical Na+/H+ (NHE3) du tubule proximal, ce qui favorise la réabsorption tubulaire proximale de NaCl et de NaHCO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soit un adulte dont la fonction rénale est normale, dont les pertes liquidiennes extra-rénales sont de 0,6L/j et dont les apports osmolaires quotidiens sont de 100 mosm. Dans ces conditions, une hyponatrémie va se développer si ses apports liquidiens dépassent 2,6L/j.    </t>
+  </si>
+  <si>
+    <t>2,6-0,6 = + de 2L/j pour l'urine, or on a 100mosm a éliminer pour 2L d'urine, donc ça va faire une concentration urinaire inférieur à 100/2 = 50mosm/L ce qui est la limite minimale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un sujet adulte et en bonne santé reçoit une dose de gliflozine par voie orale. Si Pglucose = 80 mg/dl, Clcreatinine =  120 ml/min et si l'excrétion urinaire de glucose est de 48 mg/min, on peut en déduire que 50% du glucose n'est pas réabsorbé au niveau du tubule proximal.      </t>
+  </si>
+  <si>
+    <t>On s'en fout du gliflozine ici, c'est juste pour justifier la situation, ici on doit calculer  la FE du glucose, or on a pas le volume urinaire, or on peut remarquer que FE = E_glucose / (Clcreat * Pglucose)  (comme ça le volume urinaire qu'on a pas va s'annuler) = 48/(1,2*80) =0,5 (faire giga attention au dL et mL pour pas se tromper (120mL = 1,2dL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le débit urinaire est de 1L/j avec Uosm = 560 mosm/kg et Posm = 280 mosm/kg, la clearance d'eau libre  est négative (-1L/j}, ce qui est compatible avec une situation où le VCE est augmenté.      </t>
+  </si>
+  <si>
+    <t>Vu qu'on réabsorbe l'eau, ça pourrait dire que le VCE a diminué et qu'on est en déshydratation extracellulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q26. Un homme de 50 ans, sans antécédents particuliers, a été renversé par une voiture. Il est admis en urgence pour une fracture ouverte de la jambe droite avec hémorragie importante. Il est conscient.  Examen cliniaue: TA 9/7, RC 120 battements/min, régulier; respiration rapide et profonde,  Biologie: hémoglobine 7g/dL (13-18) Na+ 137 mEq/L; K+ 4,0 mEq/L (3,5-4,8}; CI- 106 mEq/L (97-109); glucose 90 mg/dL; urée 40 mg/dl (15-40); créatinine 1,1 mg/dL (0,7-1,2) ; albumine 44 g/L (40-48)  Gazométrie artérielle (air ambiant): pH 7,30; PaCO2 25 mm Hg; HCO3- 12 mEq/L (22-26) ; SpO2 98% </t>
+  </si>
+  <si>
+    <t>Q27. Un patient de 35 ans, sans antécédents particuliers, se présente aux urgences pour une diarrhée sévère et non sanglante qui évolue depuis 4 jours. il indique que sa fille de 2 ans qui est à la crèche a contracté un rotavirus.  Examen clinique: hypotension orthostatique ; muqueuses sèches  Biologie: Na+ 135 mEqg/L (135-145); K+ 2,8 mEq/L (3,5-4,8); Cl- 112 mEq/L (97-109); glucose 70 mg/dL (70-100); urée 44 mg/dL (15-40); créatinine 1,4 mg/dL (0,7-1,2)  Gazométrie artérielle (air ambiant): pH 7,20; HCO3- 9 mEq/L; PaCO2 23 mmHg</t>
+  </si>
+  <si>
+    <t>Q33. Un patient de 57 ans bénéficie d'une intervention intestinale et une sonde nasogastrique en aspiration continue est mise en place à la fin de l'intervention.  Au 4ème jour post opératoire, alors que la sonde est toujours en place mais n'est plus en aspiration depuis la veille:  Examen clinique: hypotension orthostatique Biologie: Na+ 134 mEq/L (135-145); K+ 3,0 mEq/L (3,5-4,8); Cl- 93 mEq/L (97-109); glucose 70 mg/dL (70-100); urée 44 mg/dL (15-40); créatinine 1,4 mg/dL (0,7-1,2) Gazométrie artérielle (air ambiant): pH 7,49; HCO3- 35 mEq/L; PaCO2 49 mmHg</t>
+  </si>
+  <si>
+    <t>Q33. Un patient cirrhotique d'origine éthylique se présente pour un ictère et l'apparition d'œdèmes des membres inférieurs. Son poids a augmenté de 6 kg en 4 jours. Le régime sans sel (&lt; 100 mEq/j) n'est pas suivi et le patient continue à consommer de l'alcool.  Examen clinique: PA en position allongée 95/70 mmHg et rythme cardiaque 114/min régulier. Ictère. Présence d'ascite et d'œdèmes des membres inférieurs.  Biologie: Hb 14 g/dL (13,5-17,5), Na+ 129 mEq/L; K+ 3,6 mEq/L; urée 36 mg/dL (15-40); créat 1,1 mg/dL (0,7-1,2}; bili totale 8,5 mg/dL (&lt;1,2), bili directe 1,6 mg/dL; albumine 3,0 g/dL (4,0-4,8); glycémie 90 mg/dL; PT 60%  Urine de 24h: 850 ml; osmolalité 700 mosm/kg; créatinine 200 mg/dl; Na+ 25 mEq/L</t>
+  </si>
+  <si>
+    <t>Q26. Un homme de 24 ans est admis aux urgences pour polyurie-polydipsie.  Examen cliniaue: respiration rapide et profonde; TA 90/60 mmhHg et rythme cardiaque 132/minute, régulier.  Biologie plasmatique: Na+ 147mmol/L (135-145); K+ 3,5 mmol/L (3,5-4,8); CI- 99 mmol/L (97-109); glycémie 483 mg/dL (70-100); créatinine 1,3 mg/dL (0,7-1,2}; urée 64 mg/dL (15-40); lactate 1,9 mmol/L (0,4-2,2).  Gazométrie artérielle (air ambiant): pH 7,28; PaCO2 30 mmHg; PaO2 104 mmHg; HCO3- 14 mEqg/L Urines: débit 210 ml/h; osmolalité: 580 mosm/kg; kaliurie 40mEq/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6. Concernant la clearance et les mécanismes de dilution et de concentration des urines, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t>sorry aucune idée</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une épreuve de restriction hydrique est réalisée dans le cadre de la mise au point d'une polyurie avec urines diluées chez une femme de 25 ans sans antécédents médicaux particuliers. On constate que le débit urinaire diminue nettement, que Posm augmente et que la natrémie se normalise. Uosm augmente également pour atteindre sa valeur maximale qui est cependant inférieure à 1200 mosm/kg. Dans ces conditions, le diagnostic peut être établi et il n'est pas nécessaire de devoir injecter de la desmopressine IV.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La liaison du Ca++ avec le CaSR situé dans la membrane de la cellule principale parathyroïdienne induit une inhibition de la sécrétion de PTH.    </t>
+  </si>
+  <si>
+    <t>pas souvent mais tjr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si un échantillon d'urine est prélevé, la concentration de Cl- urinaire sera inférieure à 15 mEq/L et le pH urinaire devrait être paradoxalement acide, soit entre 5 et 5,5.    </t>
+  </si>
+  <si>
+    <t>pas encore hypertonique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un SIADH, l'osmolalité urinaire reste adaptée (Uosm &gt; 100 mosm/kg) dans la mesure où la natriurie correspond aux apports quotidiens de Na.   </t>
+  </si>
+  <si>
+    <t>elle est inadaptée</t>
+  </si>
+  <si>
+    <t>ça favorise l'hypernatrémie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une réduction importante du VCE, la stimulation orthosympathique intense induit principalement une vasoconstriction de l'artériole efférente (AE) qui réduit Pcg et le DFG.    </t>
+  </si>
+  <si>
+    <t>c'est l'artériole afférente</t>
+  </si>
+  <si>
+    <t>c'est pas de l'osmolalité mais de tonicité plasmatique (c'est un génie du crime)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un patient présente un trouble de dilution de l'urine ne lui permettant pas de descendre en dessous de 200 mosm/kg H2O. Il doit éliminer quotidiennement 550 mosm urinaires et ses pertes liquidiennes extra-rénales sont de 0,5L/j. Dans ces conditions, si ses apports hydriques sont supérieurs à 3,25L/j, il développera une hyponatrémie.    </t>
+  </si>
+  <si>
+    <t>Il doit éliminer 550mosm, or il peut dilluer ses urines qu'à hauteur de 200mosm/kg, ce qui fait que par jour, il peut excreter qu'un volume maximal de 550/200 = 2,75L. Or il peut avoir une perte extra rénal de 0,5L/j, donc il peut ingérer au maximum 2,75 + 0,5 = 3,25L/j, sinon il sera en hyponatrémie car il n'arrivera pas à éliminer l'eau en trop et elle dilluera sa tonicité plasmatique</t>
+  </si>
+  <si>
+    <t>48(mg/dL)*2,4(L/j)/ 0,8(mg/dL) = 144L/j = 144 * 1000 / 1440 (1440min = 1j) = 100ml/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque Uosm/Posm est &gt; 1, la clearance d'eau libre est positive.    </t>
+  </si>
+  <si>
+    <t>elle est négative (si Uosm &gt; Posm, ça veut dire que les urines sont concentrées, et si elles sont concentrées, ça veut dire que y a pas assez d'eau libre pour aider à dilluer -&gt; négatif)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soit des urines de 24h recueillies chez un adulte de 30 ans et en bonne santé dans le cadre d'un bilan de santé: volume 1,5 L ; U_Na 80 mEq/L, U_K 40 mEq/L, Uuree 1200 mg/dL (PM urée = 60) et Uosm = 470 mosm/kg. Dans ces conditions, il est important de calculer le trou osmotique urinaire qui est égal +30 mosm/kg.   </t>
+  </si>
+  <si>
+    <t>vu que le sujet est sain, il n'est pas nécéssaire de calculer le trou osmotique urinaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une acidose métabolique, la mesure du pH urinaire permet de déterminer la concentration urinaire de NH4+</t>
+  </si>
+  <si>
+    <t>le ph urinaire ne reflete pas la concentration d'un tampon urinaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le tampon H2PO4-/HPO4-- représente la grande majorité de l'acidité titrable, cad de l'ensemble des tampons urinaires non HCO3- et non NH4+ qui lient H+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compte tenu de la situation clinique, la compensation respiratoire est adéquate. Le calcul de là AaPO2 qui est de 8,5 mmHg confirme d'ailleurs qu'il n'y a pas de pathologie respiratoire associée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans le cas présent, comme le Delta/Delta est &gt; 2, une alcalose métabolique concomitante, induite par des vomissements ayant précédé l'admission, est très probable.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les thiazides induisent une hypocalciurie en stimulant la réabsorption tubulaire proximale du Ca++ </t>
+  </si>
+  <si>
+    <t>tubulaire distale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une acidose métabolique organique à trou anionique plasmatique augmenté (participe passé) s'accompagne généralement d'hyperkaliémie,   </t>
+  </si>
+  <si>
+    <t>ça ne modifie pas la kaliémie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La tigette urinaire permet de mettre en évidence une protéinurie de surcharge qui est liée à la présence de  chaines légères et qui est généralement &gt; 2g/j</t>
+  </si>
+  <si>
+    <t>ne détecte pas les trucs légers</t>
+  </si>
+  <si>
+    <t>c'est une protéinurie glomérulaire non selective et non une protéinurie tubulaire non sélective</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La PTH stimule la formation de calcitriol au niveau de la cellule tubulaire proximale en stimulant l'expression de la 1 alpha-hydroxylase mitochondriale.   </t>
+  </si>
+  <si>
+    <t>c'est pas tardivement mais précoce, c'est l'hyperparathyroidie tertiaire qui est tardif</t>
+  </si>
+  <si>
+    <t>la seule valeur anormale est la calcémie donc on suit l'approche diagnostique et vu qu'on est on hypocalcémie, il va donc falloir doser la PTH pour savoir si elle est haute ou basse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un individu qui boit plusieurs litres de bière par jour, les urines sont diluées mais l'osmolalité urinaire de  24h est généralement normale et de l'ordre de 600 mosm/j.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'osmolalité urinaire est basse et de l'ordre &lt;100mosm/j </t>
+  </si>
+  <si>
+    <t>c'est 82%</t>
   </si>
 </sst>
 </file>
@@ -1391,9 +1565,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1728,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F317"/>
+  <dimension ref="A1:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A317"/>
+    <sheetView tabSelected="1" topLeftCell="D204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1785,10 +1960,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1805,10 +1980,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1825,16 +2000,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>365</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1845,16 +2020,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>366</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1865,10 +2040,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>367</v>
+        <v>261</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1888,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1908,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>262</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1928,13 +2103,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>263</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1948,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1968,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1988,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -2008,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -2028,13 +2203,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -2048,13 +2223,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2068,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -2088,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2108,7 +2283,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2128,13 +2303,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>267</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2148,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2168,13 +2343,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>268</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -2188,7 +2363,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2208,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2228,13 +2403,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2248,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2268,13 +2443,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -2288,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2308,13 +2483,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -2328,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2348,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2368,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2388,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2408,13 +2583,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>379</v>
+        <v>273</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -2428,7 +2603,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2448,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2468,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2488,13 +2663,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>380</v>
+        <v>274</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>381</v>
+        <v>275</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -2508,13 +2683,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2528,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -2548,7 +2723,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2568,13 +2743,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>383</v>
+        <v>277</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -2588,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2608,13 +2783,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>385</v>
+        <v>279</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -2628,7 +2803,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>280</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2648,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -2668,13 +2843,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>387</v>
+        <v>281</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -2688,7 +2863,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -2708,13 +2883,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>388</v>
+        <v>282</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2728,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -2748,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -2768,7 +2943,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -2788,13 +2963,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -2808,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -2828,13 +3003,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>285</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -2848,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>392</v>
+        <v>286</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -2868,13 +3043,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -2888,13 +3063,13 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>394</v>
+        <v>288</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -2908,13 +3083,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>395</v>
+        <v>289</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -2928,7 +3103,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -2948,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -2968,7 +3143,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -2988,13 +3163,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>397</v>
+        <v>291</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -3008,13 +3183,13 @@
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>409</v>
+        <v>303</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -3028,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>398</v>
+        <v>292</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -3048,13 +3223,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -3068,13 +3243,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>400</v>
+        <v>294</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -3088,13 +3263,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>401</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -3108,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -3128,13 +3303,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>402</v>
+        <v>296</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -3148,13 +3323,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>403</v>
+        <v>297</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -3168,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -3188,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -3208,7 +3383,7 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -3228,13 +3403,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>405</v>
+        <v>299</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3248,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -3268,7 +3443,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -3288,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -3308,13 +3483,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3325,10 +3500,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="C80" t="s">
-        <v>415</v>
+        <v>309</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -3348,7 +3523,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -3368,13 +3543,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>407</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3388,13 +3563,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>408</v>
+        <v>302</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -3408,7 +3583,7 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -3428,13 +3603,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>411</v>
+        <v>305</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3448,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>410</v>
+        <v>304</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3468,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -3485,10 +3660,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -3505,16 +3680,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
         <v>81</v>
       </c>
-      <c r="C89" t="s">
-        <v>83</v>
-      </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -3525,10 +3700,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -3545,10 +3720,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -3565,10 +3740,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -3585,10 +3760,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
         <v>85</v>
-      </c>
-      <c r="C93" t="s">
-        <v>88</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -3605,10 +3780,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -3625,10 +3800,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>414</v>
+        <v>308</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -3645,16 +3820,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -3665,10 +3840,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>417</v>
+        <v>311</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -3685,16 +3860,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>418</v>
+        <v>312</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -3705,16 +3880,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>420</v>
+        <v>314</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -3725,10 +3900,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>421</v>
+        <v>315</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3745,16 +3920,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>422</v>
+        <v>316</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -3765,10 +3940,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>423</v>
+        <v>317</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -3785,16 +3960,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>424</v>
+        <v>318</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>425</v>
+        <v>319</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -3805,16 +3980,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -3825,10 +4000,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -3845,16 +4020,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>323</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -3865,10 +4040,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -3885,10 +4060,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>430</v>
+        <v>324</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -3905,10 +4080,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3925,16 +4100,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -3945,10 +4120,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>432</v>
+        <v>326</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -3965,10 +4140,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3985,10 +4160,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -4005,10 +4180,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -4025,16 +4200,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -4045,10 +4220,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -4065,10 +4240,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
@@ -4085,10 +4260,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -4105,10 +4280,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -4125,16 +4300,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>109</v>
+        <v>332</v>
       </c>
       <c r="D120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -4148,13 +4323,13 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -4168,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -4188,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>112</v>
+        <v>336</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -4205,10 +4380,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>114</v>
+        <v>337</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -4225,16 +4400,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4245,16 +4420,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>339</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -4265,16 +4440,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -4285,10 +4460,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
@@ -4305,16 +4480,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -4325,16 +4500,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -4345,10 +4520,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>123</v>
+        <v>343</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -4365,10 +4540,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -4385,10 +4560,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -4405,16 +4580,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -4425,16 +4600,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -4445,16 +4620,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -4465,13 +4640,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
         <v>6</v>
@@ -4485,13 +4660,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>132</v>
+        <v>349</v>
       </c>
       <c r="D138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
         <v>6</v>
@@ -4508,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -4528,13 +4703,13 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>6</v>
+        <v>352</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -4548,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -4568,7 +4743,7 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>136</v>
+        <v>354</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -4588,13 +4763,13 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
+        <v>355</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -4608,7 +4783,7 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>138</v>
+        <v>357</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -4628,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -4648,13 +4823,13 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -4668,13 +4843,13 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4688,10 +4863,10 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="s">
         <v>6</v>
@@ -4708,13 +4883,13 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -4728,10 +4903,10 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="s">
         <v>6</v>
@@ -4748,13 +4923,13 @@
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -4768,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -4788,13 +4963,13 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -4808,10 +4983,10 @@
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>6</v>
@@ -4828,7 +5003,7 @@
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -4848,7 +5023,7 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>150</v>
+        <v>364</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -4868,7 +5043,7 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -4888,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -4905,10 +5080,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C159" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -4925,16 +5100,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C160" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="D160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>6</v>
+        <v>366</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -4945,16 +5120,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C161" t="s">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>6</v>
+        <v>368</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -4965,16 +5140,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C162" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -4985,13 +5160,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>159</v>
+        <v>370</v>
       </c>
       <c r="D163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="s">
         <v>6</v>
@@ -5005,16 +5180,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C164" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="D164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -5025,13 +5200,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C165" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="D165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="s">
         <v>6</v>
@@ -5045,10 +5220,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C166" t="s">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -5065,10 +5240,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C167" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -5085,10 +5260,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="C168" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
@@ -5105,16 +5280,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C169" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -5125,10 +5300,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C170" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -5145,16 +5320,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C171" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
       <c r="D171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>6</v>
+        <v>375</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -5165,13 +5340,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C172" t="s">
-        <v>171</v>
+        <v>376</v>
       </c>
       <c r="D172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" t="s">
         <v>6</v>
@@ -5185,16 +5360,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="C173" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="D173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -5205,13 +5380,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="C174" t="s">
-        <v>173</v>
+        <v>379</v>
       </c>
       <c r="D174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
         <v>6</v>
@@ -5225,10 +5400,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="C175" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -5245,10 +5420,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="C176" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -5265,10 +5440,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C177" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -5285,16 +5460,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="D178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -5305,13 +5480,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="D179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="s">
         <v>6</v>
@@ -5325,16 +5500,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="D180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -5345,16 +5520,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C181" t="s">
-        <v>183</v>
+        <v>384</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>6</v>
+        <v>385</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -5365,16 +5540,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>386</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -5385,16 +5560,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -5405,13 +5580,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C184" t="s">
-        <v>187</v>
+        <v>389</v>
       </c>
       <c r="D184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" t="s">
         <v>6</v>
@@ -5425,10 +5600,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C185" t="s">
-        <v>188</v>
+        <v>390</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -5445,10 +5620,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="C186" t="s">
-        <v>189</v>
+        <v>391</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -5465,16 +5640,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="C187" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="D187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="F187" t="s">
         <v>6</v>
@@ -5485,16 +5660,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="C188" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="F188" t="s">
         <v>6</v>
@@ -5505,16 +5680,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C189" t="s">
-        <v>193</v>
+        <v>394</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>6</v>
+        <v>395</v>
       </c>
       <c r="F189" t="s">
         <v>6</v>
@@ -5525,16 +5700,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C190" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -5545,16 +5720,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C191" t="s">
-        <v>196</v>
+        <v>397</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -5565,13 +5740,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="C192" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="s">
         <v>6</v>
@@ -5585,16 +5760,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="C193" t="s">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="D193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -5605,13 +5780,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="C194" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="D194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
         <v>6</v>
@@ -5625,16 +5800,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C195" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="D195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -5645,13 +5820,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="C196" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="D196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" t="s">
         <v>6</v>
@@ -5665,10 +5840,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="C197" t="s">
-        <v>204</v>
+        <v>403</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -5685,16 +5860,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C198" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="D198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>6</v>
+        <v>404</v>
       </c>
       <c r="F198" t="s">
         <v>6</v>
@@ -5705,13 +5880,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="C199" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="D199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" t="s">
         <v>6</v>
@@ -5725,10 +5900,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="C200" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="D200" t="b">
         <v>1</v>
@@ -5745,16 +5920,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="C201" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>6</v>
+        <v>405</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -5765,10 +5940,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C202" t="s">
-        <v>211</v>
+        <v>406</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -5785,16 +5960,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C203" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="D203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>6</v>
+        <v>407</v>
       </c>
       <c r="F203" t="s">
         <v>6</v>
@@ -5805,16 +5980,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="C204" t="s">
-        <v>213</v>
+        <v>408</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>6</v>
+        <v>409</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -5825,16 +6000,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="C205" t="s">
-        <v>215</v>
+        <v>410</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>6</v>
+        <v>411</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -5845,16 +6020,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="C206" t="s">
-        <v>216</v>
+        <v>412</v>
       </c>
       <c r="D206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>6</v>
+        <v>413</v>
       </c>
       <c r="F206" t="s">
         <v>6</v>
@@ -5865,16 +6040,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="C207" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>6</v>
+        <v>414</v>
       </c>
       <c r="F207" t="s">
         <v>6</v>
@@ -5885,16 +6060,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="C208" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="D208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="F208" t="s">
         <v>6</v>
@@ -5905,16 +6080,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="C209" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>6</v>
+        <v>417</v>
       </c>
       <c r="F209" t="s">
         <v>6</v>
@@ -5925,16 +6100,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="C210" t="s">
-        <v>221</v>
+        <v>418</v>
       </c>
       <c r="D210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>6</v>
+        <v>419</v>
       </c>
       <c r="F210" t="s">
         <v>6</v>
@@ -5945,10 +6120,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="C211" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
@@ -5965,16 +6140,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="C212" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="D212" t="b">
-        <v>1</v>
-      </c>
-      <c r="E212" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="F212" t="s">
         <v>6</v>
@@ -5985,13 +6160,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="C213" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="D213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
         <v>6</v>
@@ -6005,10 +6180,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="C214" t="s">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -6025,10 +6200,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c r="C215" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -6045,10 +6220,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>421</v>
       </c>
       <c r="D216" t="b">
         <v>1</v>
@@ -6065,10 +6240,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="C217" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
@@ -6085,16 +6260,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="C218" t="s">
-        <v>232</v>
+        <v>422</v>
       </c>
       <c r="D218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>6</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
         <v>6</v>
@@ -6105,16 +6280,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="C219" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>6</v>
+        <v>424</v>
       </c>
       <c r="F219" t="s">
         <v>6</v>
@@ -6125,16 +6300,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C220" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>6</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
         <v>6</v>
@@ -6145,16 +6320,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="C221" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>6</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
         <v>6</v>
@@ -6165,13 +6340,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="C222" t="s">
-        <v>237</v>
+        <v>427</v>
       </c>
       <c r="D222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
@@ -6185,16 +6360,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="C223" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="D223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>6</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -6205,16 +6380,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="C224" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>6</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6225,13 +6400,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="C225" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="D225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" t="s">
         <v>6</v>
@@ -6245,16 +6420,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="C226" t="s">
-        <v>243</v>
+        <v>430</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>6</v>
+        <v>431</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -6265,10 +6440,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C227" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -6285,16 +6460,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C228" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="D228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>6</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -6305,10 +6480,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="C229" t="s">
-        <v>247</v>
+        <v>432</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6325,13 +6500,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="C230" t="s">
-        <v>248</v>
+        <v>434</v>
       </c>
       <c r="D230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="s">
         <v>6</v>
@@ -6345,16 +6520,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="C231" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="D231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>6</v>
+        <v>435</v>
       </c>
       <c r="F231" t="s">
         <v>6</v>
@@ -6365,16 +6540,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C232" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>6</v>
+        <v>436</v>
       </c>
       <c r="F232" t="s">
         <v>6</v>
@@ -6385,13 +6560,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C233" t="s">
-        <v>252</v>
+        <v>437</v>
       </c>
       <c r="D233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" t="s">
         <v>6</v>
@@ -6405,10 +6580,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="C234" t="s">
-        <v>253</v>
+        <v>438</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -6425,16 +6600,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="C235" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="D235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="F235" t="s">
         <v>6</v>
@@ -6445,10 +6620,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C236" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -6465,13 +6640,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="C237" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="D237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237" t="s">
         <v>6</v>
@@ -6485,16 +6660,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C238" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>6</v>
+        <v>440</v>
       </c>
       <c r="F238" t="s">
         <v>6</v>
@@ -6505,10 +6680,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C239" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="D239" t="b">
         <v>1</v>
@@ -6525,16 +6700,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C240" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="D240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>6</v>
+        <v>441</v>
       </c>
       <c r="F240" t="s">
         <v>6</v>
@@ -6545,10 +6720,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="C241" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -6565,16 +6740,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="C242" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="D242" t="b">
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>6</v>
+        <v>443</v>
       </c>
       <c r="F242" t="s">
         <v>6</v>
@@ -6585,13 +6760,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="C243" t="s">
-        <v>265</v>
+        <v>444</v>
       </c>
       <c r="D243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243" t="s">
         <v>6</v>
@@ -6605,13 +6780,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="C244" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="D244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="s">
         <v>6</v>
@@ -6625,10 +6800,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="C245" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="D245" t="b">
         <v>1</v>
@@ -6645,16 +6820,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="C246" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="D246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="F246" t="s">
         <v>6</v>
@@ -6665,10 +6840,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="C247" t="s">
-        <v>271</v>
+        <v>446</v>
       </c>
       <c r="D247" t="b">
         <v>1</v>
@@ -6685,16 +6860,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="C248" t="s">
-        <v>272</v>
+        <v>447</v>
       </c>
       <c r="D248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>6</v>
+        <v>448</v>
       </c>
       <c r="F248" t="s">
         <v>6</v>
@@ -6705,16 +6880,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="C249" t="s">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
       </c>
       <c r="E249" t="s">
-        <v>6</v>
+        <v>450</v>
       </c>
       <c r="F249" t="s">
         <v>6</v>
@@ -6725,16 +6900,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>274</v>
+        <v>458</v>
       </c>
       <c r="C250" t="s">
-        <v>275</v>
+        <v>451</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>6</v>
+        <v>452</v>
       </c>
       <c r="F250" t="s">
         <v>6</v>
@@ -6745,16 +6920,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>274</v>
+        <v>454</v>
       </c>
       <c r="C251" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="D251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F251" t="s">
         <v>6</v>
@@ -6765,16 +6940,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>274</v>
+        <v>454</v>
       </c>
       <c r="C252" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="D252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F252" t="s">
         <v>6</v>
@@ -6785,16 +6960,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>454</v>
       </c>
       <c r="C253" t="s">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c r="D253" t="b">
         <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F253" t="s">
         <v>6</v>
@@ -6805,16 +6980,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="C254" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="D254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F254" t="s">
         <v>6</v>
@@ -6825,16 +7000,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="C255" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="D255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F255" t="s">
         <v>6</v>
@@ -6845,16 +7020,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="C256" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="D256" t="b">
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F256" t="s">
         <v>6</v>
@@ -6865,10 +7040,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="C257" t="s">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="D257" t="b">
         <v>1</v>
@@ -6885,13 +7060,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="C258" t="s">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="D258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E258" t="s">
         <v>6</v>
@@ -6905,13 +7080,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="C259" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="D259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" t="s">
         <v>6</v>
@@ -6925,13 +7100,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="C260" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="D260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260" t="s">
         <v>6</v>
@@ -6945,16 +7120,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="C261" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="D261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="F261" t="s">
         <v>6</v>
@@ -6965,10 +7140,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="C262" t="s">
-        <v>291</v>
+        <v>461</v>
       </c>
       <c r="D262" t="b">
         <v>1</v>
@@ -6985,16 +7160,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="C263" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F263" t="s">
         <v>6</v>
@@ -7005,16 +7180,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="C264" t="s">
-        <v>293</v>
+        <v>463</v>
       </c>
       <c r="D264" t="b">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F264" t="s">
         <v>6</v>
@@ -7025,16 +7200,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>294</v>
+        <v>455</v>
       </c>
       <c r="C265" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="D265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F265" t="s">
         <v>6</v>
@@ -7045,10 +7220,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="C266" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="D266" t="b">
         <v>1</v>
@@ -7065,16 +7240,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="C267" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="D267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>6</v>
+        <v>464</v>
       </c>
       <c r="F267" t="s">
         <v>6</v>
@@ -7085,16 +7260,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C268" t="s">
-        <v>299</v>
+        <v>465</v>
       </c>
       <c r="D268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268" t="s">
-        <v>6</v>
+        <v>466</v>
       </c>
       <c r="F268" t="s">
         <v>6</v>
@@ -7105,16 +7280,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C269" t="s">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>6</v>
+        <v>467</v>
       </c>
       <c r="F269" t="s">
         <v>6</v>
@@ -7125,10 +7300,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C270" t="s">
-        <v>301</v>
+        <v>222</v>
       </c>
       <c r="D270" t="b">
         <v>1</v>
@@ -7145,16 +7320,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="C271" t="s">
-        <v>303</v>
+        <v>468</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>6</v>
+        <v>469</v>
       </c>
       <c r="F271" t="s">
         <v>6</v>
@@ -7165,10 +7340,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="C272" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D272" t="b">
         <v>1</v>
@@ -7185,13 +7360,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="C273" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="D273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" t="s">
         <v>6</v>
@@ -7205,16 +7380,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="C274" t="s">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="D274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="F274" t="s">
         <v>6</v>
@@ -7225,13 +7400,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="C275" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="D275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275" t="s">
         <v>6</v>
@@ -7245,13 +7420,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="C276" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="D276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E276" t="s">
         <v>6</v>
@@ -7265,16 +7440,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="C277" t="s">
-        <v>311</v>
+        <v>471</v>
       </c>
       <c r="D277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E277" t="s">
-        <v>6</v>
+        <v>472</v>
       </c>
       <c r="F277" t="s">
         <v>6</v>
@@ -7285,16 +7460,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="C278" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="D278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" t="s">
-        <v>6</v>
+        <v>473</v>
       </c>
       <c r="F278" t="s">
         <v>6</v>
@@ -7305,16 +7480,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="C279" t="s">
-        <v>313</v>
+        <v>474</v>
       </c>
       <c r="D279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="F279" t="s">
         <v>6</v>
@@ -7325,13 +7500,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="C280" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="D280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E280" t="s">
         <v>6</v>
@@ -7345,10 +7520,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="C281" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="D281" t="b">
         <v>1</v>
@@ -7365,10 +7540,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="C282" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
       <c r="D282" t="b">
         <v>1</v>
@@ -7385,16 +7560,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="C283" t="s">
-        <v>319</v>
+        <v>476</v>
       </c>
       <c r="D283" t="b">
         <v>0</v>
       </c>
       <c r="E283" t="s">
-        <v>6</v>
+        <v>477</v>
       </c>
       <c r="F283" t="s">
         <v>6</v>
@@ -7405,16 +7580,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="C284" t="s">
-        <v>320</v>
+        <v>478</v>
       </c>
       <c r="D284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284" t="s">
-        <v>6</v>
+        <v>479</v>
       </c>
       <c r="F284" t="s">
         <v>6</v>
@@ -7425,10 +7600,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="C285" t="s">
-        <v>321</v>
+        <v>480</v>
       </c>
       <c r="D285" t="b">
         <v>1</v>
@@ -7445,16 +7620,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="C286" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
       <c r="D286" t="b">
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F286" t="s">
         <v>6</v>
@@ -7465,16 +7640,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="C287" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="D287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F287" t="s">
         <v>6</v>
@@ -7485,16 +7660,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
       <c r="C288" t="s">
-        <v>325</v>
+        <v>482</v>
       </c>
       <c r="D288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E288" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F288" t="s">
         <v>6</v>
@@ -7505,16 +7680,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C289" t="s">
-        <v>327</v>
+        <v>483</v>
       </c>
       <c r="D289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289" t="s">
-        <v>6</v>
+        <v>484</v>
       </c>
       <c r="F289" t="s">
         <v>6</v>
@@ -7525,10 +7700,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C290" t="s">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="D290" t="b">
         <v>1</v>
@@ -7545,10 +7720,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C291" t="s">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="D291" t="b">
         <v>1</v>
@@ -7565,13 +7740,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="C292" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="D292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" t="s">
         <v>6</v>
@@ -7585,16 +7760,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="C293" t="s">
-        <v>332</v>
+        <v>485</v>
       </c>
       <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="F293" t="s">
         <v>6</v>
@@ -7605,10 +7780,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="C294" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="D294" t="b">
         <v>1</v>
@@ -7625,16 +7800,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="C295" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="D295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F295" t="s">
         <v>6</v>
@@ -7645,16 +7820,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="C296" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="D296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F296" t="s">
         <v>6</v>
@@ -7665,16 +7840,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="C297" t="s">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="D297" t="b">
         <v>1</v>
       </c>
       <c r="E297" t="s">
-        <v>6</v>
+        <v>459</v>
       </c>
       <c r="F297" t="s">
         <v>6</v>
@@ -7685,13 +7860,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="C298" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="D298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E298" t="s">
         <v>6</v>
@@ -7705,16 +7880,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="C299" t="s">
-        <v>340</v>
+        <v>487</v>
       </c>
       <c r="D299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E299" t="s">
-        <v>6</v>
+        <v>488</v>
       </c>
       <c r="F299" t="s">
         <v>6</v>
@@ -7725,16 +7900,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="C300" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="D300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300" t="s">
-        <v>6</v>
+        <v>489</v>
       </c>
       <c r="F300" t="s">
         <v>6</v>
@@ -7745,10 +7920,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="C301" t="s">
-        <v>343</v>
+        <v>490</v>
       </c>
       <c r="D301" t="b">
         <v>1</v>
@@ -7765,16 +7940,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="C302" t="s">
-        <v>344</v>
+        <v>251</v>
       </c>
       <c r="D302" t="b">
         <v>0</v>
       </c>
       <c r="E302" t="s">
-        <v>6</v>
+        <v>491</v>
       </c>
       <c r="F302" t="s">
         <v>6</v>
@@ -7785,16 +7960,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="C303" t="s">
-        <v>345</v>
+        <v>252</v>
       </c>
       <c r="D303" t="b">
         <v>1</v>
       </c>
       <c r="E303" t="s">
-        <v>6</v>
+        <v>492</v>
       </c>
       <c r="F303" t="s">
         <v>6</v>
@@ -7805,13 +7980,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="C304" t="s">
-        <v>347</v>
+        <v>254</v>
       </c>
       <c r="D304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E304" t="s">
         <v>6</v>
@@ -7825,16 +8000,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="C305" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="D305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305" t="s">
-        <v>6</v>
+        <v>494</v>
       </c>
       <c r="F305" t="s">
         <v>6</v>
@@ -7845,10 +8020,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="C306" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="D306" t="b">
         <v>1</v>
@@ -7865,10 +8040,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="C307" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -7885,198 +8060,18 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="C308" t="s">
-        <v>352</v>
+        <v>258</v>
       </c>
       <c r="D308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308" t="s">
         <v>6</v>
       </c>
       <c r="F308" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>308</v>
-      </c>
-      <c r="B309" t="s">
-        <v>350</v>
-      </c>
-      <c r="C309" t="s">
-        <v>353</v>
-      </c>
-      <c r="D309" t="b">
-        <v>0</v>
-      </c>
-      <c r="E309" t="s">
-        <v>6</v>
-      </c>
-      <c r="F309" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>309</v>
-      </c>
-      <c r="B310" t="s">
-        <v>354</v>
-      </c>
-      <c r="C310" t="s">
-        <v>355</v>
-      </c>
-      <c r="D310" t="b">
-        <v>1</v>
-      </c>
-      <c r="E310" t="s">
-        <v>6</v>
-      </c>
-      <c r="F310" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>310</v>
-      </c>
-      <c r="B311" t="s">
-        <v>354</v>
-      </c>
-      <c r="C311" t="s">
-        <v>356</v>
-      </c>
-      <c r="D311" t="b">
-        <v>0</v>
-      </c>
-      <c r="E311" t="s">
-        <v>6</v>
-      </c>
-      <c r="F311" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>311</v>
-      </c>
-      <c r="B312" t="s">
-        <v>354</v>
-      </c>
-      <c r="C312" t="s">
-        <v>357</v>
-      </c>
-      <c r="D312" t="b">
-        <v>1</v>
-      </c>
-      <c r="E312" t="s">
-        <v>6</v>
-      </c>
-      <c r="F312" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>312</v>
-      </c>
-      <c r="B313" t="s">
-        <v>358</v>
-      </c>
-      <c r="C313" t="s">
-        <v>359</v>
-      </c>
-      <c r="D313" t="b">
-        <v>1</v>
-      </c>
-      <c r="E313" t="s">
-        <v>6</v>
-      </c>
-      <c r="F313" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>313</v>
-      </c>
-      <c r="B314" t="s">
-        <v>358</v>
-      </c>
-      <c r="C314" t="s">
-        <v>360</v>
-      </c>
-      <c r="D314" t="b">
-        <v>0</v>
-      </c>
-      <c r="E314" t="s">
-        <v>6</v>
-      </c>
-      <c r="F314" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>314</v>
-      </c>
-      <c r="B315" t="s">
-        <v>358</v>
-      </c>
-      <c r="C315" t="s">
-        <v>361</v>
-      </c>
-      <c r="D315" t="b">
-        <v>1</v>
-      </c>
-      <c r="E315" t="s">
-        <v>6</v>
-      </c>
-      <c r="F315" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>315</v>
-      </c>
-      <c r="B316" t="s">
-        <v>362</v>
-      </c>
-      <c r="C316" t="s">
-        <v>363</v>
-      </c>
-      <c r="D316" t="b">
-        <v>1</v>
-      </c>
-      <c r="E316" t="s">
-        <v>6</v>
-      </c>
-      <c r="F316" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>316</v>
-      </c>
-      <c r="B317" t="s">
-        <v>362</v>
-      </c>
-      <c r="C317" t="s">
-        <v>364</v>
-      </c>
-      <c r="D317" t="b">
-        <v>1</v>
-      </c>
-      <c r="E317" t="s">
-        <v>6</v>
-      </c>
-      <c r="F317" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Physiopathologie/Excel/renale.xlsx
+++ b/Physiopathologie/Excel/renale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8851E230-D510-49A1-830A-2012CE41D8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1AC6A8-8E79-42CD-AC20-915B731218AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -782,9 +782,6 @@
     <t xml:space="preserve">Q31. Concernant les protéinuries, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La protéinurie physiologique &lt; 150 mg/24h comprend + 50% de protéines de bas poids moléculaire dont l'albumine et 450% de protéines tubulaires de Tamm-Horsfall.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Si le profil électrophorétique des protéines urinaires est identique à celui de l'électrophorèse des protéines plasmatiques, une protéinurie tubulaire non sélective doit être suspectée.    </t>
   </si>
   <si>
@@ -1524,6 +1521,9 @@
   </si>
   <si>
     <t>c'est 82%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La protéinurie physiologique &lt; 150 mg/24h comprend +ou- 50% de protéines de bas poids moléculaire dont l'albumine et +ou- 50% de protéines tubulaires de Tamm-Horsfall.   </t>
   </si>
 </sst>
 </file>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView tabSelected="1" topLeftCell="C291" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2043,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -2083,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -2103,13 +2103,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>263</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>264</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2343,13 +2343,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>268</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>269</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -2663,13 +2663,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
         <v>274</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>275</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -2763,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -2803,7 +2803,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -2983,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -3023,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -3103,7 +3103,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -3203,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -3363,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3500,10 +3500,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3623,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -3783,7 +3783,7 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -3843,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -3883,13 +3883,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
         <v>313</v>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>314</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -3903,7 +3903,7 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -3943,7 +3943,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -3963,13 +3963,13 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
         <v>318</v>
-      </c>
-      <c r="D103" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" t="s">
-        <v>319</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -3983,13 +3983,13 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
         <v>320</v>
-      </c>
-      <c r="D104" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>321</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -4023,13 +4023,13 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
+        <v>321</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
         <v>322</v>
-      </c>
-      <c r="D106" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" t="s">
-        <v>323</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -4063,7 +4063,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -4123,7 +4123,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -4183,7 +4183,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -4203,13 +4203,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
+        <v>327</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
         <v>328</v>
-      </c>
-      <c r="D115" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" t="s">
-        <v>329</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -4223,7 +4223,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -4303,13 +4303,13 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -4323,13 +4323,13 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -4363,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -4383,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -4509,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -4523,7 +4523,7 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -4583,13 +4583,13 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
+        <v>344</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
         <v>345</v>
-      </c>
-      <c r="D134" t="b">
-        <v>0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>346</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -4663,7 +4663,7 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -4683,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -4703,13 +4703,13 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
+        <v>350</v>
+      </c>
+      <c r="D140" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
         <v>351</v>
-      </c>
-      <c r="D140" t="b">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
-        <v>352</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -4723,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -4743,7 +4743,7 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -4763,13 +4763,13 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
+        <v>354</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
         <v>355</v>
-      </c>
-      <c r="D143" t="b">
-        <v>1</v>
-      </c>
-      <c r="E143" t="s">
-        <v>356</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -4783,7 +4783,7 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -4943,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
+        <v>360</v>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
         <v>361</v>
-      </c>
-      <c r="D152" t="b">
-        <v>0</v>
-      </c>
-      <c r="E152" t="s">
-        <v>362</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -5023,7 +5023,7 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -5103,13 +5103,13 @@
         <v>120</v>
       </c>
       <c r="C160" t="s">
+        <v>364</v>
+      </c>
+      <c r="D160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
         <v>365</v>
-      </c>
-      <c r="D160" t="b">
-        <v>0</v>
-      </c>
-      <c r="E160" t="s">
-        <v>366</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -5123,13 +5123,13 @@
         <v>120</v>
       </c>
       <c r="C161" t="s">
+        <v>366</v>
+      </c>
+      <c r="D161" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
         <v>367</v>
-      </c>
-      <c r="D161" t="b">
-        <v>0</v>
-      </c>
-      <c r="E161" t="s">
-        <v>368</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -5163,7 +5163,7 @@
         <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -5223,7 +5223,7 @@
         <v>125</v>
       </c>
       <c r="C166" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -5323,13 +5323,13 @@
         <v>132</v>
       </c>
       <c r="C171" t="s">
+        <v>373</v>
+      </c>
+      <c r="D171" t="b">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
         <v>374</v>
-      </c>
-      <c r="D171" t="b">
-        <v>0</v>
-      </c>
-      <c r="E171" t="s">
-        <v>375</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -5343,7 +5343,7 @@
         <v>132</v>
       </c>
       <c r="C172" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -5363,13 +5363,13 @@
         <v>132</v>
       </c>
       <c r="C173" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -5383,7 +5383,7 @@
         <v>133</v>
       </c>
       <c r="C174" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -5403,7 +5403,7 @@
         <v>133</v>
       </c>
       <c r="C175" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -5503,13 +5503,13 @@
         <v>139</v>
       </c>
       <c r="C180" t="s">
+        <v>381</v>
+      </c>
+      <c r="D180" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
         <v>382</v>
-      </c>
-      <c r="D180" t="b">
-        <v>0</v>
-      </c>
-      <c r="E180" t="s">
-        <v>383</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -5523,13 +5523,13 @@
         <v>139</v>
       </c>
       <c r="C181" t="s">
+        <v>383</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
         <v>384</v>
-      </c>
-      <c r="D181" t="b">
-        <v>0</v>
-      </c>
-      <c r="E181" t="s">
-        <v>385</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -5543,13 +5543,13 @@
         <v>139</v>
       </c>
       <c r="C182" t="s">
+        <v>385</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
         <v>386</v>
-      </c>
-      <c r="D182" t="b">
-        <v>0</v>
-      </c>
-      <c r="E182" t="s">
-        <v>387</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -5583,7 +5583,7 @@
         <v>140</v>
       </c>
       <c r="C184" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
@@ -5603,7 +5603,7 @@
         <v>140</v>
       </c>
       <c r="C185" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -5623,7 +5623,7 @@
         <v>142</v>
       </c>
       <c r="C186" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F187" t="s">
         <v>6</v>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F188" t="s">
         <v>6</v>
@@ -5683,13 +5683,13 @@
         <v>145</v>
       </c>
       <c r="C189" t="s">
+        <v>393</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
         <v>394</v>
-      </c>
-      <c r="D189" t="b">
-        <v>0</v>
-      </c>
-      <c r="E189" t="s">
-        <v>395</v>
       </c>
       <c r="F189" t="s">
         <v>6</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -5723,13 +5723,13 @@
         <v>145</v>
       </c>
       <c r="C191" t="s">
+        <v>396</v>
+      </c>
+      <c r="D191" t="b">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
         <v>397</v>
-      </c>
-      <c r="D191" t="b">
-        <v>0</v>
-      </c>
-      <c r="E191" t="s">
-        <v>398</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -5763,13 +5763,13 @@
         <v>147</v>
       </c>
       <c r="C193" t="s">
+        <v>398</v>
+      </c>
+      <c r="D193" t="b">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
         <v>399</v>
-      </c>
-      <c r="D193" t="b">
-        <v>0</v>
-      </c>
-      <c r="E193" t="s">
-        <v>400</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -5803,13 +5803,13 @@
         <v>150</v>
       </c>
       <c r="C195" t="s">
+        <v>400</v>
+      </c>
+      <c r="D195" t="b">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
         <v>401</v>
-      </c>
-      <c r="D195" t="b">
-        <v>0</v>
-      </c>
-      <c r="E195" t="s">
-        <v>402</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -5843,7 +5843,7 @@
         <v>150</v>
       </c>
       <c r="C197" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F198" t="s">
         <v>6</v>
@@ -5929,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -5943,7 +5943,7 @@
         <v>156</v>
       </c>
       <c r="C202" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F203" t="s">
         <v>6</v>
@@ -5983,13 +5983,13 @@
         <v>159</v>
       </c>
       <c r="C204" t="s">
+        <v>407</v>
+      </c>
+      <c r="D204" t="b">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
         <v>408</v>
-      </c>
-      <c r="D204" t="b">
-        <v>0</v>
-      </c>
-      <c r="E204" t="s">
-        <v>409</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -6003,13 +6003,13 @@
         <v>159</v>
       </c>
       <c r="C205" t="s">
+        <v>409</v>
+      </c>
+      <c r="D205" t="b">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
         <v>410</v>
-      </c>
-      <c r="D205" t="b">
-        <v>0</v>
-      </c>
-      <c r="E205" t="s">
-        <v>411</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -6023,13 +6023,13 @@
         <v>159</v>
       </c>
       <c r="C206" t="s">
+        <v>411</v>
+      </c>
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
         <v>412</v>
-      </c>
-      <c r="D206" t="b">
-        <v>1</v>
-      </c>
-      <c r="E206" t="s">
-        <v>413</v>
       </c>
       <c r="F206" t="s">
         <v>6</v>
@@ -6049,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F207" t="s">
         <v>6</v>
@@ -6063,13 +6063,13 @@
         <v>160</v>
       </c>
       <c r="C208" t="s">
+        <v>414</v>
+      </c>
+      <c r="D208" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
         <v>415</v>
-      </c>
-      <c r="D208" t="b">
-        <v>0</v>
-      </c>
-      <c r="E208" t="s">
-        <v>416</v>
       </c>
       <c r="F208" t="s">
         <v>6</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F209" t="s">
         <v>6</v>
@@ -6103,13 +6103,13 @@
         <v>163</v>
       </c>
       <c r="C210" t="s">
+        <v>417</v>
+      </c>
+      <c r="D210" t="b">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
         <v>418</v>
-      </c>
-      <c r="D210" t="b">
-        <v>1</v>
-      </c>
-      <c r="E210" t="s">
-        <v>419</v>
       </c>
       <c r="F210" t="s">
         <v>6</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F212" t="s">
         <v>6</v>
@@ -6183,7 +6183,7 @@
         <v>166</v>
       </c>
       <c r="C214" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>169</v>
       </c>
       <c r="C216" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D216" t="b">
         <v>1</v>
@@ -6263,13 +6263,13 @@
         <v>169</v>
       </c>
       <c r="C218" t="s">
+        <v>421</v>
+      </c>
+      <c r="D218" t="b">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
         <v>422</v>
-      </c>
-      <c r="D218" t="b">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
-        <v>423</v>
       </c>
       <c r="F218" t="s">
         <v>6</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
         <v>6</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
         <v>6</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
         <v>6</v>
@@ -6343,7 +6343,7 @@
         <v>175</v>
       </c>
       <c r="C222" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6423,13 +6423,13 @@
         <v>178</v>
       </c>
       <c r="C226" t="s">
+        <v>429</v>
+      </c>
+      <c r="D226" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
         <v>430</v>
-      </c>
-      <c r="D226" t="b">
-        <v>1</v>
-      </c>
-      <c r="E226" t="s">
-        <v>431</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -6483,7 +6483,7 @@
         <v>180</v>
       </c>
       <c r="C229" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6503,7 +6503,7 @@
         <v>183</v>
       </c>
       <c r="C230" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
         <v>6</v>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
         <v>6</v>
@@ -6563,7 +6563,7 @@
         <v>186</v>
       </c>
       <c r="C233" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -6583,7 +6583,7 @@
         <v>186</v>
       </c>
       <c r="C234" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
         <v>6</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F238" t="s">
         <v>6</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F240" t="s">
         <v>6</v>
@@ -6743,13 +6743,13 @@
         <v>198</v>
       </c>
       <c r="C242" t="s">
+        <v>441</v>
+      </c>
+      <c r="D242" t="b">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
         <v>442</v>
-      </c>
-      <c r="D242" t="b">
-        <v>0</v>
-      </c>
-      <c r="E242" t="s">
-        <v>443</v>
       </c>
       <c r="F242" t="s">
         <v>6</v>
@@ -6763,7 +6763,7 @@
         <v>198</v>
       </c>
       <c r="C243" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D243" t="b">
         <v>1</v>
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F246" t="s">
         <v>6</v>
@@ -6843,7 +6843,7 @@
         <v>200</v>
       </c>
       <c r="C247" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D247" t="b">
         <v>1</v>
@@ -6860,16 +6860,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C248" t="s">
+        <v>446</v>
+      </c>
+      <c r="D248" t="b">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
         <v>447</v>
-      </c>
-      <c r="D248" t="b">
-        <v>1</v>
-      </c>
-      <c r="E248" t="s">
-        <v>448</v>
       </c>
       <c r="F248" t="s">
         <v>6</v>
@@ -6880,16 +6880,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C249" t="s">
+        <v>448</v>
+      </c>
+      <c r="D249" t="b">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
         <v>449</v>
-      </c>
-      <c r="D249" t="b">
-        <v>1</v>
-      </c>
-      <c r="E249" t="s">
-        <v>450</v>
       </c>
       <c r="F249" t="s">
         <v>6</v>
@@ -6900,16 +6900,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C250" t="s">
+        <v>450</v>
+      </c>
+      <c r="D250" t="b">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
         <v>451</v>
-      </c>
-      <c r="D250" t="b">
-        <v>0</v>
-      </c>
-      <c r="E250" t="s">
-        <v>452</v>
       </c>
       <c r="F250" t="s">
         <v>6</v>
@@ -6920,7 +6920,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C251" t="s">
         <v>203</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F251" t="s">
         <v>6</v>
@@ -6940,7 +6940,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C252" t="s">
         <v>204</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F252" t="s">
         <v>6</v>
@@ -6960,7 +6960,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C253" t="s">
         <v>205</v>
@@ -6969,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F253" t="s">
         <v>6</v>
@@ -6980,7 +6980,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C254" t="s">
         <v>206</v>
@@ -6989,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F254" t="s">
         <v>6</v>
@@ -7000,7 +7000,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C255" t="s">
         <v>207</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F255" t="s">
         <v>6</v>
@@ -7020,7 +7020,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C256" t="s">
         <v>208</v>
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F256" t="s">
         <v>6</v>
@@ -7063,7 +7063,7 @@
         <v>209</v>
       </c>
       <c r="C258" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F261" t="s">
         <v>6</v>
@@ -7143,7 +7143,7 @@
         <v>212</v>
       </c>
       <c r="C262" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D262" t="b">
         <v>1</v>
@@ -7160,7 +7160,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C263" t="s">
         <v>215</v>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F263" t="s">
         <v>6</v>
@@ -7180,16 +7180,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C264" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D264" t="b">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F264" t="s">
         <v>6</v>
@@ -7200,7 +7200,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C265" t="s">
         <v>216</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F265" t="s">
         <v>6</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F267" t="s">
         <v>6</v>
@@ -7263,13 +7263,13 @@
         <v>220</v>
       </c>
       <c r="C268" t="s">
+        <v>464</v>
+      </c>
+      <c r="D268" t="b">
+        <v>0</v>
+      </c>
+      <c r="E268" t="s">
         <v>465</v>
-      </c>
-      <c r="D268" t="b">
-        <v>0</v>
-      </c>
-      <c r="E268" t="s">
-        <v>466</v>
       </c>
       <c r="F268" t="s">
         <v>6</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F269" t="s">
         <v>6</v>
@@ -7323,13 +7323,13 @@
         <v>223</v>
       </c>
       <c r="C271" t="s">
+        <v>467</v>
+      </c>
+      <c r="D271" t="b">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
         <v>468</v>
-      </c>
-      <c r="D271" t="b">
-        <v>0</v>
-      </c>
-      <c r="E271" t="s">
-        <v>469</v>
       </c>
       <c r="F271" t="s">
         <v>6</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F274" t="s">
         <v>6</v>
@@ -7443,13 +7443,13 @@
         <v>230</v>
       </c>
       <c r="C277" t="s">
+        <v>470</v>
+      </c>
+      <c r="D277" t="b">
+        <v>1</v>
+      </c>
+      <c r="E277" t="s">
         <v>471</v>
-      </c>
-      <c r="D277" t="b">
-        <v>1</v>
-      </c>
-      <c r="E277" t="s">
-        <v>472</v>
       </c>
       <c r="F277" t="s">
         <v>6</v>
@@ -7469,7 +7469,7 @@
         <v>1</v>
       </c>
       <c r="E278" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F278" t="s">
         <v>6</v>
@@ -7483,13 +7483,13 @@
         <v>230</v>
       </c>
       <c r="C279" t="s">
+        <v>473</v>
+      </c>
+      <c r="D279" t="b">
+        <v>0</v>
+      </c>
+      <c r="E279" t="s">
         <v>474</v>
-      </c>
-      <c r="D279" t="b">
-        <v>0</v>
-      </c>
-      <c r="E279" t="s">
-        <v>475</v>
       </c>
       <c r="F279" t="s">
         <v>6</v>
@@ -7563,13 +7563,13 @@
         <v>236</v>
       </c>
       <c r="C283" t="s">
+        <v>475</v>
+      </c>
+      <c r="D283" t="b">
+        <v>0</v>
+      </c>
+      <c r="E283" t="s">
         <v>476</v>
-      </c>
-      <c r="D283" t="b">
-        <v>0</v>
-      </c>
-      <c r="E283" t="s">
-        <v>477</v>
       </c>
       <c r="F283" t="s">
         <v>6</v>
@@ -7583,13 +7583,13 @@
         <v>236</v>
       </c>
       <c r="C284" t="s">
+        <v>477</v>
+      </c>
+      <c r="D284" t="b">
+        <v>0</v>
+      </c>
+      <c r="E284" t="s">
         <v>478</v>
-      </c>
-      <c r="D284" t="b">
-        <v>0</v>
-      </c>
-      <c r="E284" t="s">
-        <v>479</v>
       </c>
       <c r="F284" t="s">
         <v>6</v>
@@ -7603,7 +7603,7 @@
         <v>236</v>
       </c>
       <c r="C285" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D285" t="b">
         <v>1</v>
@@ -7620,16 +7620,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C286" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D286" t="b">
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F286" t="s">
         <v>6</v>
@@ -7640,7 +7640,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C287" t="s">
         <v>237</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="E287" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F287" t="s">
         <v>6</v>
@@ -7660,16 +7660,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C288" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D288" t="b">
         <v>1</v>
       </c>
       <c r="E288" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F288" t="s">
         <v>6</v>
@@ -7683,13 +7683,13 @@
         <v>238</v>
       </c>
       <c r="C289" t="s">
+        <v>482</v>
+      </c>
+      <c r="D289" t="b">
+        <v>0</v>
+      </c>
+      <c r="E289" t="s">
         <v>483</v>
-      </c>
-      <c r="D289" t="b">
-        <v>0</v>
-      </c>
-      <c r="E289" t="s">
-        <v>484</v>
       </c>
       <c r="F289" t="s">
         <v>6</v>
@@ -7763,13 +7763,13 @@
         <v>241</v>
       </c>
       <c r="C293" t="s">
+        <v>484</v>
+      </c>
+      <c r="D293" t="b">
+        <v>0</v>
+      </c>
+      <c r="E293" t="s">
         <v>485</v>
-      </c>
-      <c r="D293" t="b">
-        <v>0</v>
-      </c>
-      <c r="E293" t="s">
-        <v>486</v>
       </c>
       <c r="F293" t="s">
         <v>6</v>
@@ -7800,7 +7800,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C295" t="s">
         <v>244</v>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="E295" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F295" t="s">
         <v>6</v>
@@ -7820,7 +7820,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C296" t="s">
         <v>245</v>
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F296" t="s">
         <v>6</v>
@@ -7840,7 +7840,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C297" t="s">
         <v>246</v>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F297" t="s">
         <v>6</v>
@@ -7863,7 +7863,7 @@
         <v>247</v>
       </c>
       <c r="C298" t="s">
-        <v>248</v>
+        <v>495</v>
       </c>
       <c r="D298" t="b">
         <v>1</v>
@@ -7883,13 +7883,13 @@
         <v>247</v>
       </c>
       <c r="C299" t="s">
+        <v>486</v>
+      </c>
+      <c r="D299" t="b">
+        <v>0</v>
+      </c>
+      <c r="E299" t="s">
         <v>487</v>
-      </c>
-      <c r="D299" t="b">
-        <v>0</v>
-      </c>
-      <c r="E299" t="s">
-        <v>488</v>
       </c>
       <c r="F299" t="s">
         <v>6</v>
@@ -7903,13 +7903,13 @@
         <v>247</v>
       </c>
       <c r="C300" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D300" t="b">
         <v>0</v>
       </c>
       <c r="E300" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F300" t="s">
         <v>6</v>
@@ -7920,10 +7920,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C301" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D301" t="b">
         <v>1</v>
@@ -7940,16 +7940,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>249</v>
+      </c>
+      <c r="C302" t="s">
         <v>250</v>
       </c>
-      <c r="C302" t="s">
-        <v>251</v>
-      </c>
       <c r="D302" t="b">
         <v>0</v>
       </c>
       <c r="E302" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F302" t="s">
         <v>6</v>
@@ -7960,16 +7960,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C303" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D303" t="b">
         <v>1</v>
       </c>
       <c r="E303" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F303" t="s">
         <v>6</v>
@@ -7980,10 +7980,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>252</v>
+      </c>
+      <c r="C304" t="s">
         <v>253</v>
-      </c>
-      <c r="C304" t="s">
-        <v>254</v>
       </c>
       <c r="D304" t="b">
         <v>1</v>
@@ -8000,16 +8000,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C305" t="s">
+        <v>492</v>
+      </c>
+      <c r="D305" t="b">
+        <v>0</v>
+      </c>
+      <c r="E305" t="s">
         <v>493</v>
-      </c>
-      <c r="D305" t="b">
-        <v>0</v>
-      </c>
-      <c r="E305" t="s">
-        <v>494</v>
       </c>
       <c r="F305" t="s">
         <v>6</v>
@@ -8020,10 +8020,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C306" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D306" t="b">
         <v>1</v>
@@ -8040,10 +8040,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>255</v>
+      </c>
+      <c r="C307" t="s">
         <v>256</v>
-      </c>
-      <c r="C307" t="s">
-        <v>257</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -8060,10 +8060,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C308" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D308" t="b">
         <v>1</v>

--- a/Physiopathologie/Excel/renale.xlsx
+++ b/Physiopathologie/Excel/renale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1AC6A8-8E79-42CD-AC20-915B731218AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EAAE2-804C-49BB-8DAB-AC02C4A174AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -71,18 +71,9 @@
     <t xml:space="preserve">Q22. Concernant l'homéostasie acide-base: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Selon l'équation de Kassirer-Bleich, lorsque PCO2 = 27 mmHg et [HCO3-2] = 9 mEg/L, [H+] = 72 nM   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chez un individu normal et ayant un régime occidental, une sécrétion tubulaire de 70 mEg/j de H° est nécessaire pour assurer la réabsorption du HCO2 filtré quotidiennement.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L’intervalle de pH compatibles avec la vie se situe entre 6,8 et 7,8 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le débit urinaire minimal est de 0,5 L/jour, déterminé par l’osmolalité urinaire maximale de 1200 mosm/kg H;:0 et par la charge quotidienne de 600 mosmoles de solutés à éliminer. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> En présence d'ADH, l'élimination urinaire d’urée est élevée et représente 40-50% de la charge filtrée.  </t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t xml:space="preserve"> La plupart des corpuscules rénaux sont situés au niveau du cortex rénal. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le débit sanguin rénal est de 1200 ml/min au repos, soit +20-25% du débit cardiaque.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La clearance de l'acide para amino hippurique (qui est une substance endogène) est la clearance la plus élevée et est un marqueur du flux plasmatique rénal.  </t>
   </si>
   <si>
@@ -251,9 +239,6 @@
     <t xml:space="preserve"> Le liquide tubulaire quittant l’anse large de Henlé est hypo-osmotique (+100 mosm/kg) par rapport au plasma.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La balance glomérulo-tubulaire permet au tubule proximal de réabsorber une fraction constante de la charge filtrée de Na” lorsque celle-ci varie.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le Tm du glucose qui correspond au taux de réabsorption tubulaire maximum du glucose varie en fonction  de la glycémie. </t>
   </si>
   <si>
@@ -275,9 +260,6 @@
     <t xml:space="preserve"> Lorsque le volume du LEC est augmenté, le volume circulant effectif est toujours augmenté,  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une déshydratation du LEC liée à des pertes extra-rénales, il existe un hyperaldostéronisme 2°"  expliquant un rapport urinaire Na /K° &lt; 1 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Une prise de poids rapide, en quelques jours, est un signe d'hyperhydratation du LEC.   </t>
   </si>
   <si>
@@ -686,9 +668,6 @@
     <t xml:space="preserve"> L'hypokaliémie s'explique principalement par des pertes digestives de potassium.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Pour rétablir l'ionogramme et revenir à un pH normal, il suffi retirer la son ‘aspiration rique.     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q32. Concernant la concentration et la dilution des urines, caractériser par Vrai ou Faux chacune des propositions suivantes. </t>
   </si>
   <si>
@@ -776,9 +755,6 @@
     <t xml:space="preserve"> La fraction excrétée du sodium = 0,106%   </t>
   </si>
   <si>
-    <t xml:space="preserve"> 1! s'agit d'une cirrhose décompensée où l'état circulatoire est lié la vasodilatation artériolaire splanchnique. Cette vasodilatation est induite par une augmentation de production splanchnique de vasodilatateurs {principalement le NO) et par une hypo-réactivité des vaisseaux splanchniques aux agents vasoconstricteurs.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q31. Concernant les protéinuries, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
@@ -818,9 +794,6 @@
     <t>Non il faut une sécrétion de 4500mEq/j pour réabsorber, les 70mEq par jour c'est pour la régénération.</t>
   </si>
   <si>
-    <t xml:space="preserve"> L'excrétion urinaire nette et quotidienne de H+ = acidité titrable + ammonium - excrétion résiduelle de HCO2 (l'acidité titrable, l'ammonium et le HCO2 étant mesurés sur les urines de 24h)    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le rein réabsorbe la quasi-totalité du HCO3- filtré et assure la régénération du HCO3- qui a été consommé. </t>
   </si>
   <si>
@@ -887,9 +860,6 @@
     <t>elle reste négative</t>
   </si>
   <si>
-    <t xml:space="preserve"> La relation de Starling appliquée au capillaire glomérulaire fenêtré est la suivante:  DFG = Kf*  [Pcg- (PEB + Pi_cg)] </t>
-  </si>
-  <si>
     <t>elle est normalement de 20%</t>
   </si>
   <si>
@@ -1007,9 +977,6 @@
     <t>60*1,5/1,2 = 75L/j</t>
   </si>
   <si>
-    <t xml:space="preserve"> L'excrétion fractionnelle d'un soluté x est le rapport entre la quantité du soluté qui est excrétée et la quantité du soluté qui a été filtrée, soit [(Ux* Pcreat)/ (Px * Ucreat)]    </t>
-  </si>
-  <si>
     <t>Ils sont sensible aux variations de volume</t>
   </si>
   <si>
@@ -1064,9 +1031,6 @@
     <t>bizarre bizarre pour le système de retrocontrole negatif psk ça concerne le Ca mais bon</t>
   </si>
   <si>
-    <t xml:space="preserve"> La liaison du Ca2+au récepteur CaSR (calcium sensing receptor) de la cellule principale parathyroïdienne  inhibe la sécrétion de PTH.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les thiazides ont un effet hypocalciurique en stimulant la réabsorption de Ca2+ via le canal apical TRPV5 des cellules tubulaires distales.   </t>
   </si>
   <si>
@@ -1085,9 +1049,6 @@
     <t>La sécrétion osmotique d'ADH est influencée par une variation plasmatique d'à peine 1%</t>
   </si>
   <si>
-    <t xml:space="preserve"> le tampon HPO42-/H2PO4- représente la grande majorité de l'acidité titrable. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> au niveau du tubule collecteur, la sécrétion d’un H+ correspond à la réabsorption d’un HCO3-</t>
   </si>
   <si>
@@ -1157,9 +1118,6 @@
     <t>Si le soluté est librement filtrée, c'est qu'il passe librement à travers le glomérule, or si sa clearance est nulle, c'est qu'il ne se retrouve pas du tout dans l'urine, donc entre temps, le soluté s'est fait totalement réabsorbé</t>
   </si>
   <si>
-    <t xml:space="preserve"> Si le pH artériel = 7,3 et sachant que le pK du couple CO2/HCO23-= 6,1, cela implique que log ([CO2 dissout ]arteriel / ([HCO3-]artériel) = 1,2.    </t>
-  </si>
-  <si>
     <t>c'est le log de l'inverse</t>
   </si>
   <si>
@@ -1187,15 +1145,9 @@
     <t>c'est une fraction constante</t>
   </si>
   <si>
-    <t xml:space="preserve"> La majorité du glucose filtré est réabsorbée dans la portion proximale du tubule proximal par le SGLT1 (2Na /1D-glucose) qui est également présent au niveau des cellules villositaires grêles.   </t>
-  </si>
-  <si>
     <t>La majorité par SGLT2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Les diurétiques thiazidiques inhibent le cotransport Na+/K+/2Cl (NKCC2) apical.    </t>
-  </si>
-  <si>
     <t>c'est les diurétiques de l'anse qui inhibent le NKCC2</t>
   </si>
   <si>
@@ -1478,9 +1430,6 @@
     <t xml:space="preserve"> Le tampon H2PO4-/HPO4-- représente la grande majorité de l'acidité titrable, cad de l'ensemble des tampons urinaires non HCO3- et non NH4+ qui lient H+ </t>
   </si>
   <si>
-    <t xml:space="preserve"> Compte tenu de la situation clinique, la compensation respiratoire est adéquate. Le calcul de là AaPO2 qui est de 8,5 mmHg confirme d'ailleurs qu'il n'y a pas de pathologie respiratoire associée.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dans le cas présent, comme le Delta/Delta est &gt; 2, une alcalose métabolique concomitante, induite par des vomissements ayant précédé l'admission, est très probable.    </t>
   </si>
   <si>
@@ -1524,6 +1473,57 @@
   </si>
   <si>
     <t xml:space="preserve"> La protéinurie physiologique &lt; 150 mg/24h comprend +ou- 50% de protéines de bas poids moléculaire dont l'albumine et +ou- 50% de protéines tubulaires de Tamm-Horsfall.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon l'équation de Kassirer-Bleich, lorsque PCO2 = 27 mmHg et [HCO3--] = 9 mEg/L, [H+] = 72 nM   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un individu normal et ayant un régime occidental, une sécrétion tubulaire de 70 mEg/j de H+ est nécessaire pour assurer la réabsorption du HCO3 filtré quotidiennement.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'excrétion urinaire nette et quotidienne de H+ = acidité titrable + ammonium - excrétion résiduelle de HCO3 (l'acidité titrable, l'ammonium et le HCO3 étant mesurés sur les urines de 24h)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit urinaire minimal est de 0,5 L/jour, déterminé par l’osmolalité urinaire maximale de 1200 mosm/kg H2O et par la charge quotidienne de 600 mosmoles de solutés à éliminer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit sanguin rénal est de 1200 ml/min au repos, soit +ou- 20-25% du débit cardiaque.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La relation de Starling appliquée au capillaire glomérulaire fenêtré est la suivante:  DFG = Kf*  [Pcg- (P_EB + Pi_cg)] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La balance glomérulo-tubulaire permet au tubule proximal de réabsorber une fraction constante de la charge filtrée de Na+ lorsque celle-ci varie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une déshydratation du LEC liée à des pertes extra-rénales, il existe un hyperaldostéronisme 2ndaire  expliquant un rapport urinaire Na+/K+ &lt; 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'excrétion fractionnelle d'un soluté x est le rapport entre la quantité du soluté qui est excrétée et la quantité du soluté qui a été filtrée, soit  [(Ux* Pcreat)/ (Px * Ucreat)]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La liaison du Ca2+ au récepteur CaSR (calcium sensing receptor) de la cellule principale parathyroïdienne  inhibe la sécrétion de PTH.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le tampon HPO4--/H2PO4- représente la grande majorité de l'acidité titrable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le pH artériel = 7,3 et sachant que le pK du couple CO2/HCO3-= 6,1, cela implique que log ([CO2 dissout ]arteriel / ([HCO3-]artériel) = 1,2.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La majorité du glucose filtré est réabsorbée dans la portion proximale du tubule proximal par le SGLT1 (2Na+ /1D-glucose) qui est également présent au niveau des cellules villositaires grêles.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les diurétiques thiazidiques inhibent le cotransport Na+/K+/2Cl- (NKCC2) apical.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour rétablir l'ionogramme et revenir à un pH normal, il suffit retirer la sonde d'aspiration gastrique.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compte tenu de la situation clinique, la compensation respiratoire est adéquate. Le calcul de la AaPO2 qui est de 8,5 mmHg confirme d'ailleurs qu'il n'y a pas de pathologie respiratoire associée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il s'agit d'une cirrhose décompensée où l'état circulatoire est lié la vasodilatation artériolaire splanchnique. Cette vasodilatation est induite par une augmentation de production splanchnique de vasodilatateurs {principalement le NO) et par une hypo-réactivité des vaisseaux splanchniques aux agents vasoconstricteurs.    </t>
   </si>
 </sst>
 </file>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C291" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+    <sheetView tabSelected="1" topLeftCell="C278" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>479</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2023,13 +2023,13 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2043,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>481</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2083,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -2103,13 +2103,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>482</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -2203,13 +2203,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -2223,13 +2223,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2243,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2283,7 +2283,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2303,13 +2303,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2323,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2343,13 +2343,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -2363,7 +2363,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2403,13 +2403,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2423,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2443,13 +2443,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
@@ -2463,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2483,13 +2483,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -2503,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2523,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2583,13 +2583,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -2603,7 +2603,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2623,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2663,13 +2663,13 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
@@ -2683,13 +2683,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2703,7 +2703,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2743,13 +2743,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -2763,7 +2763,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2783,13 +2783,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -2803,7 +2803,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2823,7 +2823,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -2843,13 +2843,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -2863,7 +2863,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -2883,13 +2883,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2903,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -2963,13 +2963,13 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
@@ -2983,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>484</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -3003,13 +3003,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -3023,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -3043,13 +3043,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -3063,13 +3063,13 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -3083,13 +3083,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -3103,7 +3103,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -3163,13 +3163,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -3183,13 +3183,13 @@
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -3203,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -3223,13 +3223,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -3243,13 +3243,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -3263,13 +3263,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -3283,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -3303,13 +3303,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -3323,13 +3323,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -3343,7 +3343,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -3383,7 +3383,7 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -3403,13 +3403,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3423,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -3443,7 +3443,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>485</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -3463,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3500,10 +3500,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -3523,7 +3523,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -3543,13 +3543,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3563,13 +3563,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -3583,7 +3583,7 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -3603,13 +3603,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3623,7 +3623,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3643,7 +3643,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -3683,13 +3683,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -3703,7 +3703,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -3723,7 +3723,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -3763,7 +3763,7 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -3783,7 +3783,7 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -3803,7 +3803,7 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -3823,13 +3823,13 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -3843,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -3863,13 +3863,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -3883,13 +3883,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -3903,7 +3903,7 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3923,13 +3923,13 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -3943,7 +3943,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -3963,13 +3963,13 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -3983,13 +3983,13 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -4003,7 +4003,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -4023,13 +4023,13 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -4043,7 +4043,7 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>323</v>
+        <v>487</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -4083,7 +4083,7 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -4103,13 +4103,13 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
@@ -4123,7 +4123,7 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -4163,7 +4163,7 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -4183,7 +4183,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -4203,13 +4203,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -4223,7 +4223,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -4243,7 +4243,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -4303,13 +4303,13 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -4323,13 +4323,13 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -4343,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -4363,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -4383,7 +4383,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -4403,13 +4403,13 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4423,13 +4423,13 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -4443,13 +4443,13 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -4463,7 +4463,7 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
@@ -4483,13 +4483,13 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -4503,13 +4503,13 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -4523,7 +4523,7 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>342</v>
+        <v>488</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -4543,7 +4543,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -4583,13 +4583,13 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -4603,13 +4603,13 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -4623,13 +4623,13 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -4643,7 +4643,7 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -4683,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>349</v>
+        <v>489</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -4703,13 +4703,13 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -4723,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -4743,7 +4743,7 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -4763,13 +4763,13 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -4783,7 +4783,7 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -4823,13 +4823,13 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -4843,13 +4843,13 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4863,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -4883,13 +4883,13 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -4903,7 +4903,7 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -4923,13 +4923,13 @@
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -4943,13 +4943,13 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -4963,13 +4963,13 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="F153" t="s">
         <v>6</v>
@@ -4983,7 +4983,7 @@
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -5003,7 +5003,7 @@
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -5080,10 +5080,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C159" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -5100,16 +5100,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C160" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -5120,16 +5120,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C161" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -5140,16 +5140,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C162" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -5160,10 +5160,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C163" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -5180,16 +5180,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C164" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -5200,10 +5200,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C165" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -5220,10 +5220,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C166" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -5240,10 +5240,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C167" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -5260,10 +5260,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C168" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
@@ -5280,16 +5280,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C169" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -5300,10 +5300,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C170" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -5320,16 +5320,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C171" t="s">
-        <v>373</v>
+        <v>490</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -5340,10 +5340,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C172" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -5360,16 +5360,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C173" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -5380,10 +5380,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C174" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -5400,10 +5400,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C175" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -5420,10 +5420,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C176" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -5440,10 +5440,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C177" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -5460,16 +5460,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C178" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -5480,10 +5480,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C179" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -5500,16 +5500,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C180" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -5520,16 +5520,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C181" t="s">
-        <v>383</v>
+        <v>491</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -5540,16 +5540,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C182" t="s">
-        <v>385</v>
+        <v>492</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -5560,16 +5560,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C183" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -5580,10 +5580,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C184" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
@@ -5600,10 +5600,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C185" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -5620,10 +5620,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -5640,16 +5640,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C187" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F187" t="s">
         <v>6</v>
@@ -5660,16 +5660,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C188" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="F188" t="s">
         <v>6</v>
@@ -5680,16 +5680,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C189" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F189" t="s">
         <v>6</v>
@@ -5700,16 +5700,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C190" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -5720,16 +5720,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C191" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -5740,10 +5740,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C192" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -5760,16 +5760,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C193" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -5780,10 +5780,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C194" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
@@ -5800,16 +5800,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C195" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -5820,10 +5820,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C196" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D196" t="b">
         <v>1</v>
@@ -5840,10 +5840,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C197" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -5860,16 +5860,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C198" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
         <v>6</v>
@@ -5880,10 +5880,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C199" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
@@ -5900,10 +5900,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C200" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D200" t="b">
         <v>1</v>
@@ -5920,16 +5920,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C201" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -5940,10 +5940,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C202" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -5960,16 +5960,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C203" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
         <v>6</v>
@@ -5980,16 +5980,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C204" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -6000,16 +6000,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C205" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -6020,16 +6020,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C206" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="F206" t="s">
         <v>6</v>
@@ -6040,16 +6040,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C207" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
         <v>6</v>
@@ -6060,16 +6060,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C208" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
         <v>6</v>
@@ -6080,16 +6080,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C209" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
         <v>6</v>
@@ -6100,16 +6100,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C210" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="D210" t="b">
         <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
         <v>6</v>
@@ -6120,10 +6120,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C211" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
@@ -6140,16 +6140,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C212" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F212" t="s">
         <v>6</v>
@@ -6160,10 +6160,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C213" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -6180,10 +6180,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C214" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -6200,10 +6200,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C215" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -6220,10 +6220,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C216" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D216" t="b">
         <v>1</v>
@@ -6240,10 +6240,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C217" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
@@ -6260,16 +6260,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C218" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F218" t="s">
         <v>6</v>
@@ -6280,16 +6280,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C219" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F219" t="s">
         <v>6</v>
@@ -6300,16 +6300,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C220" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F220" t="s">
         <v>6</v>
@@ -6320,16 +6320,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C221" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="F221" t="s">
         <v>6</v>
@@ -6340,10 +6340,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C222" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -6360,16 +6360,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C223" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -6380,16 +6380,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C224" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6400,10 +6400,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C225" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
@@ -6420,16 +6420,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C226" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -6440,10 +6440,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C227" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -6460,16 +6460,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C228" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -6480,10 +6480,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C229" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6500,10 +6500,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C230" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -6520,16 +6520,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C231" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="F231" t="s">
         <v>6</v>
@@ -6540,16 +6540,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C232" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="F232" t="s">
         <v>6</v>
@@ -6560,10 +6560,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C233" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -6580,10 +6580,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C234" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -6600,16 +6600,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C235" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="F235" t="s">
         <v>6</v>
@@ -6620,10 +6620,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C236" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -6640,10 +6640,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C237" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
@@ -6660,16 +6660,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C238" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="F238" t="s">
         <v>6</v>
@@ -6680,10 +6680,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C239" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D239" t="b">
         <v>1</v>
@@ -6700,16 +6700,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C240" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D240" t="b">
         <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="F240" t="s">
         <v>6</v>
@@ -6720,10 +6720,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C241" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -6740,16 +6740,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C242" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D242" t="b">
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="F242" t="s">
         <v>6</v>
@@ -6760,10 +6760,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C243" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D243" t="b">
         <v>1</v>
@@ -6780,10 +6780,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C244" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
@@ -6800,10 +6800,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C245" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D245" t="b">
         <v>1</v>
@@ -6820,16 +6820,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C246" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D246" t="b">
         <v>0</v>
       </c>
       <c r="E246" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F246" t="s">
         <v>6</v>
@@ -6840,10 +6840,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C247" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="D247" t="b">
         <v>1</v>
@@ -6860,16 +6860,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C248" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D248" t="b">
         <v>1</v>
       </c>
       <c r="E248" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="F248" t="s">
         <v>6</v>
@@ -6880,16 +6880,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C249" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
       </c>
       <c r="E249" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F249" t="s">
         <v>6</v>
@@ -6900,16 +6900,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C250" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
       </c>
       <c r="E250" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F250" t="s">
         <v>6</v>
@@ -6920,16 +6920,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C251" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D251" t="b">
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F251" t="s">
         <v>6</v>
@@ -6940,16 +6940,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C252" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D252" t="b">
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F252" t="s">
         <v>6</v>
@@ -6960,16 +6960,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C253" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D253" t="b">
         <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F253" t="s">
         <v>6</v>
@@ -6980,16 +6980,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C254" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D254" t="b">
         <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F254" t="s">
         <v>6</v>
@@ -7000,16 +7000,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C255" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D255" t="b">
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F255" t="s">
         <v>6</v>
@@ -7020,16 +7020,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C256" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D256" t="b">
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F256" t="s">
         <v>6</v>
@@ -7040,10 +7040,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C257" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D257" t="b">
         <v>1</v>
@@ -7060,10 +7060,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C258" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
@@ -7080,10 +7080,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C259" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D259" t="b">
         <v>1</v>
@@ -7100,10 +7100,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C260" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D260" t="b">
         <v>1</v>
@@ -7120,16 +7120,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C261" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D261" t="b">
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F261" t="s">
         <v>6</v>
@@ -7140,10 +7140,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C262" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D262" t="b">
         <v>1</v>
@@ -7160,16 +7160,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C263" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F263" t="s">
         <v>6</v>
@@ -7180,16 +7180,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C264" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D264" t="b">
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F264" t="s">
         <v>6</v>
@@ -7200,16 +7200,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C265" t="s">
-        <v>216</v>
+        <v>493</v>
       </c>
       <c r="D265" t="b">
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F265" t="s">
         <v>6</v>
@@ -7220,10 +7220,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C266" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D266" t="b">
         <v>1</v>
@@ -7240,16 +7240,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C267" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D267" t="b">
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F267" t="s">
         <v>6</v>
@@ -7260,16 +7260,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C268" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D268" t="b">
         <v>0</v>
       </c>
       <c r="E268" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="F268" t="s">
         <v>6</v>
@@ -7280,16 +7280,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C269" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="F269" t="s">
         <v>6</v>
@@ -7300,10 +7300,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C270" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D270" t="b">
         <v>1</v>
@@ -7320,16 +7320,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C271" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F271" t="s">
         <v>6</v>
@@ -7340,10 +7340,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C272" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D272" t="b">
         <v>1</v>
@@ -7360,10 +7360,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C273" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D273" t="b">
         <v>1</v>
@@ -7380,16 +7380,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C274" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D274" t="b">
         <v>0</v>
       </c>
       <c r="E274" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F274" t="s">
         <v>6</v>
@@ -7400,10 +7400,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C275" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D275" t="b">
         <v>1</v>
@@ -7420,10 +7420,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C276" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D276" t="b">
         <v>1</v>
@@ -7440,16 +7440,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C277" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D277" t="b">
         <v>1</v>
       </c>
       <c r="E277" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F277" t="s">
         <v>6</v>
@@ -7460,16 +7460,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C278" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D278" t="b">
         <v>1</v>
       </c>
       <c r="E278" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="F278" t="s">
         <v>6</v>
@@ -7480,16 +7480,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C279" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D279" t="b">
         <v>0</v>
       </c>
       <c r="E279" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="F279" t="s">
         <v>6</v>
@@ -7500,10 +7500,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C280" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D280" t="b">
         <v>1</v>
@@ -7520,10 +7520,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C281" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D281" t="b">
         <v>1</v>
@@ -7540,10 +7540,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C282" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D282" t="b">
         <v>1</v>
@@ -7560,16 +7560,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C283" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D283" t="b">
         <v>0</v>
       </c>
       <c r="E283" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="F283" t="s">
         <v>6</v>
@@ -7580,16 +7580,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C284" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D284" t="b">
         <v>0</v>
       </c>
       <c r="E284" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="F284" t="s">
         <v>6</v>
@@ -7600,10 +7600,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C285" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D285" t="b">
         <v>1</v>
@@ -7620,16 +7620,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C286" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="D286" t="b">
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F286" t="s">
         <v>6</v>
@@ -7640,16 +7640,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C287" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D287" t="b">
         <v>0</v>
       </c>
       <c r="E287" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F287" t="s">
         <v>6</v>
@@ -7660,16 +7660,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C288" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D288" t="b">
         <v>1</v>
       </c>
       <c r="E288" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F288" t="s">
         <v>6</v>
@@ -7680,16 +7680,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C289" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="D289" t="b">
         <v>0</v>
       </c>
       <c r="E289" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="F289" t="s">
         <v>6</v>
@@ -7700,10 +7700,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C290" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D290" t="b">
         <v>1</v>
@@ -7720,10 +7720,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C291" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D291" t="b">
         <v>1</v>
@@ -7740,10 +7740,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C292" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D292" t="b">
         <v>1</v>
@@ -7760,16 +7760,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C293" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F293" t="s">
         <v>6</v>
@@ -7780,10 +7780,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C294" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D294" t="b">
         <v>1</v>
@@ -7800,16 +7800,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C295" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D295" t="b">
         <v>0</v>
       </c>
       <c r="E295" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F295" t="s">
         <v>6</v>
@@ -7820,16 +7820,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C296" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D296" t="b">
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F296" t="s">
         <v>6</v>
@@ -7840,16 +7840,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C297" t="s">
-        <v>246</v>
+        <v>495</v>
       </c>
       <c r="D297" t="b">
         <v>1</v>
       </c>
       <c r="E297" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="F297" t="s">
         <v>6</v>
@@ -7860,10 +7860,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C298" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="D298" t="b">
         <v>1</v>
@@ -7880,16 +7880,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C299" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D299" t="b">
         <v>0</v>
       </c>
       <c r="E299" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F299" t="s">
         <v>6</v>
@@ -7900,16 +7900,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C300" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D300" t="b">
         <v>0</v>
       </c>
       <c r="E300" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="F300" t="s">
         <v>6</v>
@@ -7920,10 +7920,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C301" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D301" t="b">
         <v>1</v>
@@ -7940,16 +7940,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C302" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D302" t="b">
         <v>0</v>
       </c>
       <c r="E302" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="F302" t="s">
         <v>6</v>
@@ -7960,16 +7960,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C303" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D303" t="b">
         <v>1</v>
       </c>
       <c r="E303" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="F303" t="s">
         <v>6</v>
@@ -7980,10 +7980,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C304" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D304" t="b">
         <v>1</v>
@@ -8000,16 +8000,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C305" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="D305" t="b">
         <v>0</v>
       </c>
       <c r="E305" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F305" t="s">
         <v>6</v>
@@ -8020,10 +8020,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C306" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D306" t="b">
         <v>1</v>
@@ -8040,10 +8040,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C307" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -8060,10 +8060,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C308" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D308" t="b">
         <v>1</v>
